--- a/productosV2.xlsx
+++ b/productosV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Documents\Chumazero_Ambato\ChumaBot\Bot_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315FE88B-4AC8-49BB-9389-5EFAB0E3B3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A2F17-691A-408E-A3E8-678F8C1E0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="425">
   <si>
     <t>name</t>
   </si>
@@ -1294,13 +1294,28 @@
   </si>
   <si>
     <t>{"Fraile 1500ml":1,"Haciendazo 1500ml":1}</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Servir</t>
+  </si>
+  <si>
+    <t>Llevar</t>
+  </si>
+  <si>
+    <t>Zhumir M</t>
+  </si>
+  <si>
+    <t>Zhumir Mango</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1315,14 +1330,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1374,7 +1381,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1677,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F186" sqref="F186"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,11 +1697,12 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.21875" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>207</v>
       </c>
@@ -1714,13 +1722,16 @@
         <v>393</v>
       </c>
       <c r="G1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" t="s">
         <v>413</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -1736,18 +1747,21 @@
       <c r="E2" t="s">
         <v>178</v>
       </c>
-      <c r="F2" s="3" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; G2 &amp; """" &amp; ":" &amp; H2 &amp; "}"</f>
+      <c r="F2" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H2 &amp; """" &amp; ":" &amp; I2 &amp; "}"</f>
         <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H2" t="s">
         <v>205</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>208</v>
       </c>
@@ -1763,18 +1777,21 @@
       <c r="E3" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="3" t="str">
-        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "{" &amp; """" &amp; G3 &amp; """" &amp; ":" &amp; H3 &amp; "}"</f>
+      <c r="F3" s="2" t="str">
+        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "{" &amp; """" &amp; H3 &amp; """" &amp; ":" &amp; I3 &amp; "}"</f>
         <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" t="s">
         <v>202</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -1790,18 +1807,21 @@
       <c r="E4" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club 850ml":1}</v>
       </c>
       <c r="G4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H4" t="s">
         <v>198</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -1817,18 +1837,21 @@
       <c r="E5" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Corona 330ml":1}</v>
       </c>
       <c r="G5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H5" t="s">
         <v>200</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -1844,18 +1867,21 @@
       <c r="E6" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Inti 500ml":1}</v>
       </c>
       <c r="G6" t="s">
+        <v>421</v>
+      </c>
+      <c r="H6" t="s">
         <v>399</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -1871,18 +1897,21 @@
       <c r="E7" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club 330ml":1}</v>
       </c>
       <c r="G7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>208</v>
       </c>
@@ -1898,15 +1927,18 @@
       <c r="E8" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>421</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>208</v>
       </c>
@@ -1922,18 +1954,21 @@
       <c r="E9" t="s">
         <v>182</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Coronita 210ml":1}</v>
       </c>
       <c r="G9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H9" t="s">
         <v>201</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -1949,18 +1984,21 @@
       <c r="E10" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Inti 500ml":1.5}</v>
       </c>
       <c r="G10" t="s">
+        <v>421</v>
+      </c>
+      <c r="H10" t="s">
         <v>399</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -1976,18 +2014,21 @@
       <c r="E11" t="s">
         <v>174</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Inti 500ml":1.5}</v>
       </c>
       <c r="G11" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" t="s">
         <v>399</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>208</v>
       </c>
@@ -2003,18 +2044,21 @@
       <c r="E12" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Inti 500ml":1.5}</v>
       </c>
       <c r="G12" t="s">
+        <v>421</v>
+      </c>
+      <c r="H12" t="s">
         <v>399</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -2030,15 +2074,18 @@
       <c r="E13" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>421</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>208</v>
       </c>
@@ -2054,15 +2101,18 @@
       <c r="E14" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>421</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -2078,15 +2128,18 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>421</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>208</v>
       </c>
@@ -2102,15 +2155,18 @@
       <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>421</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -2126,18 +2182,21 @@
       <c r="E17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Azteca miniatura 50ml":1}</v>
       </c>
       <c r="G17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" t="s">
         <v>249</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>208</v>
       </c>
@@ -2153,18 +2212,21 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Azteca miniatura 50ml":1}</v>
       </c>
       <c r="G18" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" t="s">
         <v>249</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>208</v>
       </c>
@@ -2180,18 +2242,21 @@
       <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Jagermeister Miniatura":1}</v>
       </c>
       <c r="G19" t="s">
+        <v>421</v>
+      </c>
+      <c r="H19" t="s">
         <v>247</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>208</v>
       </c>
@@ -2207,15 +2272,18 @@
       <c r="E20" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>421</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -2231,15 +2299,18 @@
       <c r="E21" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>421</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -2255,15 +2326,18 @@
       <c r="E22" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="3" t="str">
+      <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>421</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -2279,15 +2353,18 @@
       <c r="E23" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>421</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -2303,15 +2380,18 @@
       <c r="E24" t="s">
         <v>195</v>
       </c>
-      <c r="F24" s="3" t="str">
+      <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>208</v>
       </c>
@@ -2327,15 +2407,18 @@
       <c r="E25" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="3" t="str">
+      <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>421</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -2351,15 +2434,18 @@
       <c r="E26" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>208</v>
       </c>
@@ -2375,15 +2461,18 @@
       <c r="E27" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="3" t="str">
+      <c r="F27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>421</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -2399,15 +2488,18 @@
       <c r="E28" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="3" t="str">
+      <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>421</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>208</v>
       </c>
@@ -2423,15 +2515,18 @@
       <c r="E29" t="s">
         <v>193</v>
       </c>
-      <c r="F29" s="3" t="str">
+      <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>421</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>208</v>
       </c>
@@ -2447,15 +2542,18 @@
       <c r="E30" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="3" t="str">
+      <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>421</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>208</v>
       </c>
@@ -2471,18 +2569,21 @@
       <c r="E31" t="s">
         <v>272</v>
       </c>
-      <c r="F31" s="3" t="str">
+      <c r="F31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Inti 500ml":0.5}</v>
       </c>
       <c r="G31" t="s">
+        <v>421</v>
+      </c>
+      <c r="H31" t="s">
         <v>399</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -2498,15 +2599,18 @@
       <c r="E32" t="s">
         <v>148</v>
       </c>
-      <c r="F32" s="3" t="str">
+      <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>421</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>209</v>
       </c>
@@ -2522,18 +2626,21 @@
       <c r="E33" t="s">
         <v>197</v>
       </c>
-      <c r="F33" s="3" t="str">
+      <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club 330ml":1}</v>
       </c>
       <c r="G33" t="s">
+        <v>421</v>
+      </c>
+      <c r="H33" t="s">
         <v>197</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -2549,45 +2656,51 @@
       <c r="E34" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club 850ml":1}</v>
       </c>
       <c r="G34" t="s">
+        <v>421</v>
+      </c>
+      <c r="H34" t="s">
         <v>198</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>209</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>3.8</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E35" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="3" t="str">
+      <c r="F35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club 850ml":1}</v>
       </c>
       <c r="G35" t="s">
+        <v>422</v>
+      </c>
+      <c r="H35" t="s">
         <v>198</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>209</v>
       </c>
@@ -2603,18 +2716,21 @@
       <c r="E36" t="s">
         <v>199</v>
       </c>
-      <c r="F36" s="3" t="str">
+      <c r="F36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club lata":1}</v>
       </c>
       <c r="G36" t="s">
+        <v>421</v>
+      </c>
+      <c r="H36" t="s">
         <v>199</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>209</v>
       </c>
@@ -2630,18 +2746,21 @@
       <c r="E37" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="3" t="str">
+      <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Corona 330ml":1}</v>
       </c>
       <c r="G37" t="s">
+        <v>421</v>
+      </c>
+      <c r="H37" t="s">
         <v>200</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>209</v>
       </c>
@@ -2657,18 +2776,21 @@
       <c r="E38" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="3" t="str">
+      <c r="F38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Coronita 210ml":1}</v>
       </c>
       <c r="G38" t="s">
+        <v>421</v>
+      </c>
+      <c r="H38" t="s">
         <v>201</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -2684,18 +2806,21 @@
       <c r="E39" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="3" t="str">
+      <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G39" t="s">
+        <v>421</v>
+      </c>
+      <c r="H39" t="s">
         <v>202</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -2706,23 +2831,26 @@
         <v>3.8</v>
       </c>
       <c r="D40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
         <v>203</v>
       </c>
-      <c r="F40" s="3" t="str">
+      <c r="F40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G40" t="s">
+        <v>422</v>
+      </c>
+      <c r="H40" t="s">
         <v>202</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -2738,18 +2866,21 @@
       <c r="E41" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="3" t="str">
+      <c r="F41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G41" t="s">
+        <v>421</v>
+      </c>
+      <c r="H41" t="s">
         <v>205</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>209</v>
       </c>
@@ -2760,23 +2891,26 @@
         <v>3.05</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" t="s">
         <v>206</v>
       </c>
-      <c r="F42" s="3" t="str">
+      <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G42" t="s">
+        <v>422</v>
+      </c>
+      <c r="H42" t="s">
         <v>205</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>210</v>
       </c>
@@ -2792,18 +2926,21 @@
       <c r="E43" t="s">
         <v>367</v>
       </c>
-      <c r="F43" s="3" t="str">
+      <c r="F43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Espuela 750ml":1}</v>
       </c>
       <c r="G43" t="s">
+        <v>421</v>
+      </c>
+      <c r="H43" t="s">
         <v>211</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>210</v>
       </c>
@@ -2819,18 +2956,21 @@
       <c r="E44" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="3" t="str">
+      <c r="F44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Gran Malo 750ml":1}</v>
       </c>
       <c r="G44" t="s">
+        <v>421</v>
+      </c>
+      <c r="H44" t="s">
         <v>212</v>
       </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>210</v>
       </c>
@@ -2846,18 +2986,21 @@
       <c r="E45" t="s">
         <v>369</v>
       </c>
-      <c r="F45" s="3" t="str">
+      <c r="F45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Azteca Silver 1000ml":1}</v>
       </c>
       <c r="G45" t="s">
+        <v>421</v>
+      </c>
+      <c r="H45" t="s">
         <v>214</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>210</v>
       </c>
@@ -2873,18 +3016,21 @@
       <c r="E46" t="s">
         <v>370</v>
       </c>
-      <c r="F46" s="3" t="str">
+      <c r="F46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Azteca Silver 750ml":1}</v>
       </c>
       <c r="G46" t="s">
+        <v>421</v>
+      </c>
+      <c r="H46" t="s">
         <v>215</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>210</v>
       </c>
@@ -2900,18 +3046,21 @@
       <c r="E47" t="s">
         <v>371</v>
       </c>
-      <c r="F47" s="3" t="str">
+      <c r="F47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Rancho 750ml":1}</v>
       </c>
       <c r="G47" t="s">
+        <v>421</v>
+      </c>
+      <c r="H47" t="s">
         <v>213</v>
       </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>210</v>
       </c>
@@ -2927,18 +3076,21 @@
       <c r="E48" t="s">
         <v>372</v>
       </c>
-      <c r="F48" s="3" t="str">
+      <c r="F48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Canijo Tamarindo":1}</v>
       </c>
       <c r="G48" t="s">
+        <v>421</v>
+      </c>
+      <c r="H48" t="s">
         <v>216</v>
       </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>210</v>
       </c>
@@ -2954,18 +3106,21 @@
       <c r="E49" t="s">
         <v>373</v>
       </c>
-      <c r="F49" s="3" t="str">
+      <c r="F49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Smirnoff":1}</v>
       </c>
       <c r="G49" t="s">
+        <v>421</v>
+      </c>
+      <c r="H49" t="s">
         <v>362</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -2981,18 +3136,21 @@
       <c r="E50" t="s">
         <v>249</v>
       </c>
-      <c r="F50" s="3" t="str">
+      <c r="F50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Azteca miniatura 50ml":1}</v>
       </c>
       <c r="G50" t="s">
+        <v>421</v>
+      </c>
+      <c r="H50" t="s">
         <v>249</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -3008,18 +3166,21 @@
       <c r="E51" t="s">
         <v>219</v>
       </c>
-      <c r="F51" s="3" t="str">
+      <c r="F51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbados Blue Berry":1}</v>
       </c>
       <c r="G51" t="s">
+        <v>421</v>
+      </c>
+      <c r="H51" t="s">
         <v>219</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3035,18 +3196,21 @@
       <c r="E52" t="s">
         <v>220</v>
       </c>
-      <c r="F52" s="3" t="str">
+      <c r="F52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbados Cannabis":1}</v>
       </c>
       <c r="G52" t="s">
+        <v>421</v>
+      </c>
+      <c r="H52" t="s">
         <v>220</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>217</v>
       </c>
@@ -3062,18 +3226,21 @@
       <c r="E53" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="3" t="str">
+      <c r="F53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbadados Cotton Candy":1}</v>
       </c>
       <c r="G53" t="s">
+        <v>421</v>
+      </c>
+      <c r="H53" t="s">
         <v>221</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -3089,18 +3256,21 @@
       <c r="E54" t="s">
         <v>222</v>
       </c>
-      <c r="F54" s="3" t="str">
+      <c r="F54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbados Mythological Drink":1}</v>
       </c>
       <c r="G54" t="s">
+        <v>421</v>
+      </c>
+      <c r="H54" t="s">
         <v>222</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -3111,23 +3281,26 @@
         <v>5.5</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="3" t="str">
+      <c r="F55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbados Blue Berry":1}</v>
       </c>
       <c r="G55" t="s">
+        <v>422</v>
+      </c>
+      <c r="H55" t="s">
         <v>219</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -3138,23 +3311,26 @@
         <v>5.5</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="E56" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="3" t="str">
+      <c r="F56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbados Cannabis":1}</v>
       </c>
       <c r="G56" t="s">
+        <v>422</v>
+      </c>
+      <c r="H56" t="s">
         <v>220</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>217</v>
       </c>
@@ -3165,23 +3341,26 @@
         <v>5.5</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
         <v>261</v>
       </c>
-      <c r="F57" s="3" t="str">
+      <c r="F57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbadados Cotton Candy":1}</v>
       </c>
       <c r="G57" t="s">
+        <v>422</v>
+      </c>
+      <c r="H57" t="s">
         <v>221</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -3192,23 +3371,26 @@
         <v>5.5</v>
       </c>
       <c r="D58" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="E58" t="s">
         <v>262</v>
       </c>
-      <c r="F58" s="3" t="str">
+      <c r="F58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Barbados Mythological Drink":1}</v>
       </c>
       <c r="G58" t="s">
+        <v>422</v>
+      </c>
+      <c r="H58" t="s">
         <v>222</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>217</v>
       </c>
@@ -3224,18 +3406,21 @@
       <c r="E59" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="3" t="str">
+      <c r="F59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Vodka 40":1}</v>
       </c>
       <c r="G59" t="s">
+        <v>421</v>
+      </c>
+      <c r="H59" t="s">
         <v>50</v>
       </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>217</v>
       </c>
@@ -3251,18 +3436,21 @@
       <c r="E60" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="3" t="str">
+      <c r="F60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Cartago Guarana":1}</v>
       </c>
       <c r="G60" t="s">
+        <v>421</v>
+      </c>
+      <c r="H60" t="s">
         <v>51</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>218</v>
       </c>
@@ -3278,18 +3466,21 @@
       <c r="E61" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="3" t="str">
+      <c r="F61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Ron Abuelo":1}</v>
       </c>
       <c r="G61" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" t="s">
         <v>52</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -3305,18 +3496,21 @@
       <c r="E62" t="s">
         <v>374</v>
       </c>
-      <c r="F62" s="3" t="str">
+      <c r="F62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Antioqueño Tapa azul 750ml":1}</v>
       </c>
       <c r="G62" t="s">
+        <v>421</v>
+      </c>
+      <c r="H62" t="s">
         <v>224</v>
       </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -3332,18 +3526,21 @@
       <c r="E63" t="s">
         <v>375</v>
       </c>
-      <c r="F63" s="3" t="str">
+      <c r="F63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Antioqueño Tapa azul 375ml":1}</v>
       </c>
       <c r="G63" t="s">
+        <v>421</v>
+      </c>
+      <c r="H63" t="s">
         <v>225</v>
       </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -3359,18 +3556,21 @@
       <c r="E64" t="s">
         <v>376</v>
       </c>
-      <c r="F64" s="3" t="str">
+      <c r="F64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Zhumir Coco Tropical 700ml":1}</v>
       </c>
       <c r="G64" t="s">
+        <v>421</v>
+      </c>
+      <c r="H64" t="s">
         <v>226</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -3386,26 +3586,29 @@
       <c r="E65" t="s">
         <v>377</v>
       </c>
-      <c r="F65" s="3" t="str">
+      <c r="F65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Zhumir Naranjilla 700ml":1}</v>
       </c>
       <c r="G65" t="s">
+        <v>421</v>
+      </c>
+      <c r="H65" t="s">
         <v>227</v>
       </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>423</v>
       </c>
       <c r="C66">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -3413,18 +3616,21 @@
       <c r="E66" t="s">
         <v>398</v>
       </c>
-      <c r="F66" s="3" t="str">
+      <c r="F66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Zhumir Mango 700ml":1}</v>
       </c>
       <c r="G66" t="s">
+        <v>421</v>
+      </c>
+      <c r="H66" t="s">
         <v>397</v>
       </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>223</v>
       </c>
@@ -3440,18 +3646,21 @@
       <c r="E67" t="s">
         <v>378</v>
       </c>
-      <c r="F67" s="3" t="str">
-        <f t="shared" ref="F67:F130" si="1" xml:space="preserve"> "{" &amp; """" &amp; G67 &amp; """" &amp; ":" &amp; H67 &amp; "}"</f>
+      <c r="F67" s="2" t="str">
+        <f t="shared" ref="F67:F130" si="1" xml:space="preserve"> "{" &amp; """" &amp; H67 &amp; """" &amp; ":" &amp; I67 &amp; "}"</f>
         <v>{"Zhumir Pink":1}</v>
       </c>
       <c r="G67" t="s">
+        <v>421</v>
+      </c>
+      <c r="H67" t="s">
         <v>228</v>
       </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>223</v>
       </c>
@@ -3462,23 +3671,26 @@
         <v>5.5</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="E68" t="s">
         <v>263</v>
       </c>
-      <c r="F68" s="3" t="str">
+      <c r="F68" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Zhumir Coco Tropical 700ml":1}</v>
       </c>
       <c r="G68" t="s">
+        <v>422</v>
+      </c>
+      <c r="H68" t="s">
         <v>226</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>223</v>
       </c>
@@ -3489,23 +3701,26 @@
         <v>5.5</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="E69" t="s">
         <v>264</v>
       </c>
-      <c r="F69" s="3" t="str">
+      <c r="F69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Zhumir Naranjilla 700ml":1}</v>
       </c>
       <c r="G69" t="s">
+        <v>422</v>
+      </c>
+      <c r="H69" t="s">
         <v>227</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -3516,23 +3731,26 @@
         <v>5.5</v>
       </c>
       <c r="D70" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="E70" t="s">
         <v>265</v>
       </c>
-      <c r="F70" s="3" t="str">
+      <c r="F70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Zhumir Pink":1}</v>
       </c>
       <c r="G70" t="s">
+        <v>422</v>
+      </c>
+      <c r="H70" t="s">
         <v>228</v>
       </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>223</v>
       </c>
@@ -3540,26 +3758,29 @@
         <v>122</v>
       </c>
       <c r="C71">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="E71" t="s">
         <v>396</v>
       </c>
-      <c r="F71" s="3" t="str">
+      <c r="F71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Zhumir Mango 700ml":1}</v>
       </c>
       <c r="G71" t="s">
+        <v>422</v>
+      </c>
+      <c r="H71" t="s">
         <v>397</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>223</v>
       </c>
@@ -3575,18 +3796,21 @@
       <c r="E72" t="s">
         <v>379</v>
       </c>
-      <c r="F72" s="3" t="str">
+      <c r="F72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Norteño 750ml":1}</v>
       </c>
       <c r="G72" t="s">
+        <v>421</v>
+      </c>
+      <c r="H72" t="s">
         <v>229</v>
       </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>223</v>
       </c>
@@ -3602,18 +3826,21 @@
       <c r="E73" t="s">
         <v>380</v>
       </c>
-      <c r="F73" s="3" t="str">
+      <c r="F73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Norteño Black 750 ml":1}</v>
       </c>
       <c r="G73" t="s">
+        <v>421</v>
+      </c>
+      <c r="H73" t="s">
         <v>231</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -3629,18 +3856,21 @@
       <c r="E74" t="s">
         <v>381</v>
       </c>
-      <c r="F74" s="3" t="str">
+      <c r="F74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Norteño Gold 750ml ":1}</v>
       </c>
       <c r="G74" t="s">
+        <v>421</v>
+      </c>
+      <c r="H74" t="s">
         <v>232</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3656,18 +3886,21 @@
       <c r="E75" t="s">
         <v>382</v>
       </c>
-      <c r="F75" s="3" t="str">
+      <c r="F75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Norteño 375ml":1}</v>
       </c>
       <c r="G75" t="s">
+        <v>421</v>
+      </c>
+      <c r="H75" t="s">
         <v>230</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -3683,18 +3916,21 @@
       <c r="E76" t="s">
         <v>236</v>
       </c>
-      <c r="F76" s="3" t="str">
+      <c r="F76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Fraile 1500ml ":1}</v>
       </c>
       <c r="G76" t="s">
+        <v>421</v>
+      </c>
+      <c r="H76" t="s">
         <v>236</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>233</v>
       </c>
@@ -3710,18 +3946,21 @@
       <c r="E77" t="s">
         <v>234</v>
       </c>
-      <c r="F77" s="3" t="str">
+      <c r="F77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cavic Tinto 1000ml":1}</v>
       </c>
       <c r="G77" t="s">
+        <v>421</v>
+      </c>
+      <c r="H77" t="s">
         <v>234</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -3737,18 +3976,21 @@
       <c r="E78" t="s">
         <v>235</v>
       </c>
-      <c r="F78" s="3" t="str">
+      <c r="F78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Miraflores 750ml":1}</v>
       </c>
       <c r="G78" t="s">
+        <v>421</v>
+      </c>
+      <c r="H78" t="s">
         <v>235</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -3764,18 +4006,21 @@
       <c r="E79" t="s">
         <v>237</v>
       </c>
-      <c r="F79" s="3" t="str">
+      <c r="F79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G79" t="s">
+        <v>421</v>
+      </c>
+      <c r="H79" t="s">
         <v>237</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>233</v>
       </c>
@@ -3786,23 +4031,26 @@
         <v>5.5</v>
       </c>
       <c r="D80" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="E80" t="s">
         <v>255</v>
       </c>
-      <c r="F80" s="3" t="str">
+      <c r="F80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Fraile 1500ml ":1}</v>
       </c>
       <c r="G80" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" t="s">
         <v>236</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>233</v>
       </c>
@@ -3813,23 +4061,26 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E81" t="s">
         <v>256</v>
       </c>
-      <c r="F81" s="3" t="str">
+      <c r="F81" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cavic Tinto 1000ml":1}</v>
       </c>
       <c r="G81" t="s">
+        <v>422</v>
+      </c>
+      <c r="H81" t="s">
         <v>234</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>233</v>
       </c>
@@ -3840,23 +4091,26 @@
         <v>5.75</v>
       </c>
       <c r="D82" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="E82" t="s">
         <v>257</v>
       </c>
-      <c r="F82" s="3" t="str">
+      <c r="F82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Miraflores 750ml":1}</v>
       </c>
       <c r="G82" t="s">
+        <v>422</v>
+      </c>
+      <c r="H82" t="s">
         <v>235</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>233</v>
       </c>
@@ -3867,23 +4121,26 @@
         <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
         <v>258</v>
       </c>
-      <c r="F83" s="3" t="str">
+      <c r="F83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G83" t="s">
+        <v>422</v>
+      </c>
+      <c r="H83" t="s">
         <v>237</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>233</v>
       </c>
@@ -3899,18 +4156,21 @@
       <c r="E84" t="s">
         <v>66</v>
       </c>
-      <c r="F84" s="3" t="str">
+      <c r="F84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G84" t="s">
+        <v>421</v>
+      </c>
+      <c r="H84" t="s">
         <v>237</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>238</v>
       </c>
@@ -3926,18 +4186,21 @@
       <c r="E85" t="s">
         <v>383</v>
       </c>
-      <c r="F85" s="3" t="str">
+      <c r="F85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Old Times Black 745ml":1}</v>
       </c>
       <c r="G85" t="s">
+        <v>421</v>
+      </c>
+      <c r="H85" t="s">
         <v>243</v>
       </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>238</v>
       </c>
@@ -3953,18 +4216,21 @@
       <c r="E86" t="s">
         <v>384</v>
       </c>
-      <c r="F86" s="3" t="str">
+      <c r="F86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Old Time Red 745cc":1}</v>
       </c>
       <c r="G86" t="s">
+        <v>421</v>
+      </c>
+      <c r="H86" t="s">
         <v>242</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -3980,18 +4246,21 @@
       <c r="E87" t="s">
         <v>385</v>
       </c>
-      <c r="F87" s="3" t="str">
+      <c r="F87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Johnnie Walker Red 750 ml ":1}</v>
       </c>
       <c r="G87" t="s">
+        <v>421</v>
+      </c>
+      <c r="H87" t="s">
         <v>240</v>
       </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>238</v>
       </c>
@@ -4007,18 +4276,21 @@
       <c r="E88" t="s">
         <v>386</v>
       </c>
-      <c r="F88" s="3" t="str">
+      <c r="F88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Old Times Miel 750ml":1}</v>
       </c>
       <c r="G88" t="s">
+        <v>421</v>
+      </c>
+      <c r="H88" t="s">
         <v>241</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>238</v>
       </c>
@@ -4034,18 +4306,21 @@
       <c r="E89" t="s">
         <v>387</v>
       </c>
-      <c r="F89" s="3" t="str">
+      <c r="F89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Old Times Manzana 750ml":1}</v>
       </c>
       <c r="G89" t="s">
+        <v>421</v>
+      </c>
+      <c r="H89" t="s">
         <v>244</v>
       </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>238</v>
       </c>
@@ -4061,18 +4336,21 @@
       <c r="E90" t="s">
         <v>388</v>
       </c>
-      <c r="F90" s="3" t="str">
+      <c r="F90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Buchanans":1}</v>
       </c>
       <c r="G90" t="s">
+        <v>421</v>
+      </c>
+      <c r="H90" t="s">
         <v>72</v>
       </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>238</v>
       </c>
@@ -4088,18 +4366,21 @@
       <c r="E91" t="s">
         <v>389</v>
       </c>
-      <c r="F91" s="3" t="str">
+      <c r="F91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Something Special":1}</v>
       </c>
       <c r="G91" t="s">
+        <v>421</v>
+      </c>
+      <c r="H91" t="s">
         <v>73</v>
       </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>238</v>
       </c>
@@ -4115,18 +4396,21 @@
       <c r="E92" t="s">
         <v>248</v>
       </c>
-      <c r="F92" s="3" t="str">
+      <c r="F92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"John Morris Petit":1}</v>
       </c>
       <c r="G92" t="s">
+        <v>421</v>
+      </c>
+      <c r="H92" t="s">
         <v>248</v>
       </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -4142,18 +4426,21 @@
       <c r="E93" t="s">
         <v>390</v>
       </c>
-      <c r="F93" s="3" t="str">
+      <c r="F93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Gluksmaister litro":1}</v>
       </c>
       <c r="G93" t="s">
+        <v>421</v>
+      </c>
+      <c r="H93" t="s">
         <v>245</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>239</v>
       </c>
@@ -4169,18 +4456,21 @@
       <c r="E94" t="s">
         <v>391</v>
       </c>
-      <c r="F94" s="3" t="str">
+      <c r="F94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Jagermaister 1L":1}</v>
       </c>
       <c r="G94" t="s">
+        <v>421</v>
+      </c>
+      <c r="H94" t="s">
         <v>246</v>
       </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>239</v>
       </c>
@@ -4196,18 +4486,21 @@
       <c r="E95" t="s">
         <v>247</v>
       </c>
-      <c r="F95" s="3" t="str">
+      <c r="F95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Jagermeister Miniatura":1}</v>
       </c>
       <c r="G95" t="s">
+        <v>421</v>
+      </c>
+      <c r="H95" t="s">
         <v>247</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -4223,18 +4516,21 @@
       <c r="E96" t="s">
         <v>275</v>
       </c>
-      <c r="F96" s="3" t="str">
+      <c r="F96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Four Loko Blue ":1}</v>
       </c>
       <c r="G96" t="s">
+        <v>421</v>
+      </c>
+      <c r="H96" t="s">
         <v>275</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -4250,18 +4546,21 @@
       <c r="E97" t="s">
         <v>276</v>
       </c>
-      <c r="F97" s="3" t="str">
+      <c r="F97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Four loko Gold ":1}</v>
       </c>
       <c r="G97" t="s">
+        <v>421</v>
+      </c>
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>250</v>
       </c>
@@ -4277,18 +4576,21 @@
       <c r="E98" t="s">
         <v>277</v>
       </c>
-      <c r="F98" s="3" t="str">
+      <c r="F98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Four Loko Red":1}</v>
       </c>
       <c r="G98" t="s">
+        <v>421</v>
+      </c>
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>250</v>
       </c>
@@ -4304,18 +4606,21 @@
       <c r="E99" t="s">
         <v>278</v>
       </c>
-      <c r="F99" s="3" t="str">
+      <c r="F99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Four Loko Withe":1}</v>
       </c>
       <c r="G99" t="s">
+        <v>421</v>
+      </c>
+      <c r="H99" t="s">
         <v>278</v>
       </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>250</v>
       </c>
@@ -4331,18 +4636,21 @@
       <c r="E100" t="s">
         <v>280</v>
       </c>
-      <c r="F100" s="3" t="str">
+      <c r="F100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Jelly Four loko":1}</v>
       </c>
       <c r="G100" t="s">
+        <v>421</v>
+      </c>
+      <c r="H100" t="s">
         <v>280</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>251</v>
       </c>
@@ -4358,18 +4666,21 @@
       <c r="E101" t="s">
         <v>279</v>
       </c>
-      <c r="F101" s="3" t="str">
+      <c r="F101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Gelatina Switch":1}</v>
       </c>
       <c r="G101" t="s">
+        <v>421</v>
+      </c>
+      <c r="H101" t="s">
         <v>279</v>
       </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>251</v>
       </c>
@@ -4385,18 +4696,21 @@
       <c r="E102" t="s">
         <v>281</v>
       </c>
-      <c r="F102" s="3" t="str">
+      <c r="F102" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Bongo Bongo":1}</v>
       </c>
       <c r="G102" t="s">
+        <v>421</v>
+      </c>
+      <c r="H102" t="s">
         <v>281</v>
       </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -4412,18 +4726,21 @@
       <c r="E103" t="s">
         <v>282</v>
       </c>
-      <c r="F103" s="3" t="str">
+      <c r="F103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Daiquiri":1}</v>
       </c>
       <c r="G103" t="s">
+        <v>421</v>
+      </c>
+      <c r="H103" t="s">
         <v>282</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>251</v>
       </c>
@@ -4439,18 +4756,21 @@
       <c r="E104" t="s">
         <v>283</v>
       </c>
-      <c r="F104" s="3" t="str">
+      <c r="F104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Harta Demencia":1}</v>
       </c>
       <c r="G104" t="s">
+        <v>421</v>
+      </c>
+      <c r="H104" t="s">
         <v>283</v>
       </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>251</v>
       </c>
@@ -4466,18 +4786,21 @@
       <c r="E105" t="s">
         <v>284</v>
       </c>
-      <c r="F105" s="3" t="str">
+      <c r="F105" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Maracuya":1}</v>
       </c>
       <c r="G105" t="s">
+        <v>421</v>
+      </c>
+      <c r="H105" t="s">
         <v>284</v>
       </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>251</v>
       </c>
@@ -4493,18 +4816,21 @@
       <c r="E106" t="s">
         <v>285</v>
       </c>
-      <c r="F106" s="3" t="str">
+      <c r="F106" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Tamarindo":1}</v>
       </c>
       <c r="G106" t="s">
+        <v>421</v>
+      </c>
+      <c r="H106" t="s">
         <v>285</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>251</v>
       </c>
@@ -4515,23 +4841,26 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E107" t="s">
         <v>286</v>
       </c>
-      <c r="F107" s="3" t="str">
+      <c r="F107" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Bongo Bongo":1}</v>
       </c>
       <c r="G107" t="s">
+        <v>422</v>
+      </c>
+      <c r="H107" t="s">
         <v>281</v>
       </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>251</v>
       </c>
@@ -4542,23 +4871,26 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E108" t="s">
         <v>287</v>
       </c>
-      <c r="F108" s="3" t="str">
+      <c r="F108" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Daiquiri":1}</v>
       </c>
       <c r="G108" t="s">
+        <v>422</v>
+      </c>
+      <c r="H108" t="s">
         <v>282</v>
       </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>251</v>
       </c>
@@ -4569,23 +4901,26 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E109" t="s">
         <v>288</v>
       </c>
-      <c r="F109" s="3" t="str">
+      <c r="F109" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Harta Demencia":1}</v>
       </c>
       <c r="G109" t="s">
+        <v>422</v>
+      </c>
+      <c r="H109" t="s">
         <v>283</v>
       </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -4596,23 +4931,26 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E110" t="s">
         <v>289</v>
       </c>
-      <c r="F110" s="3" t="str">
+      <c r="F110" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Maracuya":1}</v>
       </c>
       <c r="G110" t="s">
+        <v>422</v>
+      </c>
+      <c r="H110" t="s">
         <v>284</v>
       </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -4623,23 +4961,26 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E111" t="s">
         <v>290</v>
       </c>
-      <c r="F111" s="3" t="str">
+      <c r="F111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Switch Tamarindo":1}</v>
       </c>
       <c r="G111" t="s">
+        <v>422</v>
+      </c>
+      <c r="H111" t="s">
         <v>285</v>
       </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>250</v>
       </c>
@@ -4655,18 +4996,21 @@
       <c r="E112" t="s">
         <v>90</v>
       </c>
-      <c r="F112" s="3" t="str">
+      <c r="F112" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"RTD":1}</v>
       </c>
       <c r="G112" t="s">
+        <v>421</v>
+      </c>
+      <c r="H112" t="s">
         <v>90</v>
       </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>250</v>
       </c>
@@ -4677,23 +5021,26 @@
         <v>3.5</v>
       </c>
       <c r="D113" t="s">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
         <v>291</v>
       </c>
-      <c r="F113" s="3" t="str">
+      <c r="F113" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"RTD":1}</v>
       </c>
       <c r="G113" t="s">
+        <v>422</v>
+      </c>
+      <c r="H113" t="s">
         <v>90</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>252</v>
       </c>
@@ -4709,18 +5056,21 @@
       <c r="E114" t="s">
         <v>292</v>
       </c>
-      <c r="F114" s="3" t="str">
+      <c r="F114" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cubata Berrylicious":1}</v>
       </c>
       <c r="G114" t="s">
+        <v>421</v>
+      </c>
+      <c r="H114" t="s">
         <v>292</v>
       </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -4736,18 +5086,21 @@
       <c r="E115" t="s">
         <v>293</v>
       </c>
-      <c r="F115" s="3" t="str">
+      <c r="F115" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cubata Guarana":1}</v>
       </c>
       <c r="G115" t="s">
+        <v>421</v>
+      </c>
+      <c r="H115" t="s">
         <v>293</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>252</v>
       </c>
@@ -4763,18 +5116,21 @@
       <c r="E116" t="s">
         <v>294</v>
       </c>
-      <c r="F116" s="3" t="str">
+      <c r="F116" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cubata Piña Paradice":1}</v>
       </c>
       <c r="G116" t="s">
+        <v>421</v>
+      </c>
+      <c r="H116" t="s">
         <v>294</v>
       </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -4785,23 +5141,26 @@
         <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E117" t="s">
         <v>295</v>
       </c>
-      <c r="F117" s="3" t="str">
+      <c r="F117" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cubata Berrylicious":1}</v>
       </c>
       <c r="G117" t="s">
+        <v>422</v>
+      </c>
+      <c r="H117" t="s">
         <v>292</v>
       </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>252</v>
       </c>
@@ -4812,23 +5171,26 @@
         <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E118" t="s">
         <v>296</v>
       </c>
-      <c r="F118" s="3" t="str">
+      <c r="F118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cubata Guarana":1}</v>
       </c>
       <c r="G118" t="s">
+        <v>422</v>
+      </c>
+      <c r="H118" t="s">
         <v>293</v>
       </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>252</v>
       </c>
@@ -4839,23 +5201,26 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E119" t="s">
         <v>297</v>
       </c>
-      <c r="F119" s="3" t="str">
+      <c r="F119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Cubata Piña Paradice":1}</v>
       </c>
       <c r="G119" t="s">
+        <v>422</v>
+      </c>
+      <c r="H119" t="s">
         <v>294</v>
       </c>
-      <c r="H119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>208</v>
       </c>
@@ -4871,15 +5236,18 @@
       <c r="E120" t="s">
         <v>355</v>
       </c>
-      <c r="F120" s="3" t="str">
+      <c r="F120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"":1}</v>
       </c>
-      <c r="H120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G120" t="s">
+        <v>421</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>208</v>
       </c>
@@ -4895,15 +5263,18 @@
       <c r="E121" t="s">
         <v>354</v>
       </c>
-      <c r="F121" s="3" t="str">
+      <c r="F121" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"":1}</v>
       </c>
-      <c r="H121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G121" t="s">
+        <v>421</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>208</v>
       </c>
@@ -4920,15 +5291,18 @@
       <c r="E122" t="s">
         <v>356</v>
       </c>
-      <c r="F122" s="3" t="str">
+      <c r="F122" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"":1}</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G122" t="s">
+        <v>421</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>208</v>
       </c>
@@ -4945,15 +5319,18 @@
       <c r="E123" t="s">
         <v>357</v>
       </c>
-      <c r="F123" s="3" t="str">
+      <c r="F123" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"":1}</v>
       </c>
-      <c r="H123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G123" t="s">
+        <v>421</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>253</v>
       </c>
@@ -4970,19 +5347,22 @@
       <c r="E124" t="s">
         <v>94</v>
       </c>
-      <c r="F124" s="3" t="str">
+      <c r="F124" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Monster":1}</v>
       </c>
-      <c r="G124" t="str">
+      <c r="G124" t="s">
+        <v>421</v>
+      </c>
+      <c r="H124" t="str">
         <f>E124</f>
         <v>Monster</v>
       </c>
-      <c r="H124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>253</v>
       </c>
@@ -4999,19 +5379,22 @@
       <c r="E125" t="s">
         <v>95</v>
       </c>
-      <c r="F125" s="3" t="str">
+      <c r="F125" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Redbull":1}</v>
       </c>
-      <c r="G125" t="str">
-        <f t="shared" ref="G125:G136" si="3">E125</f>
+      <c r="G125" t="s">
+        <v>421</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" ref="H125:H136" si="3">E125</f>
         <v>Redbull</v>
       </c>
-      <c r="H125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>253</v>
       </c>
@@ -5028,19 +5411,22 @@
       <c r="E126" t="s">
         <v>96</v>
       </c>
-      <c r="F126" s="3" t="str">
+      <c r="F126" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Gatorade G":1}</v>
       </c>
-      <c r="G126" t="str">
+      <c r="G126" t="s">
+        <v>421</v>
+      </c>
+      <c r="H126" t="str">
         <f t="shared" si="3"/>
         <v>Gatorade G</v>
       </c>
-      <c r="H126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -5057,19 +5443,22 @@
       <c r="E127" t="s">
         <v>97</v>
       </c>
-      <c r="F127" s="3" t="str">
+      <c r="F127" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Gatorade P":1}</v>
       </c>
-      <c r="G127" t="str">
+      <c r="G127" t="s">
+        <v>421</v>
+      </c>
+      <c r="H127" t="str">
         <f t="shared" si="3"/>
         <v>Gatorade P</v>
       </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>253</v>
       </c>
@@ -5086,19 +5475,22 @@
       <c r="E128" t="s">
         <v>98</v>
       </c>
-      <c r="F128" s="3" t="str">
+      <c r="F128" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Vive 100":1}</v>
       </c>
-      <c r="G128" t="str">
+      <c r="G128" t="s">
+        <v>421</v>
+      </c>
+      <c r="H128" t="str">
         <f t="shared" si="3"/>
         <v>Vive 100</v>
       </c>
-      <c r="H128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>253</v>
       </c>
@@ -5115,19 +5507,22 @@
       <c r="E129" t="s">
         <v>99</v>
       </c>
-      <c r="F129" s="3" t="str">
+      <c r="F129" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Agua G":1}</v>
       </c>
-      <c r="G129" t="str">
+      <c r="G129" t="s">
+        <v>421</v>
+      </c>
+      <c r="H129" t="str">
         <f t="shared" si="3"/>
         <v>Agua G</v>
       </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>253</v>
       </c>
@@ -5144,19 +5539,22 @@
       <c r="E130" t="s">
         <v>100</v>
       </c>
-      <c r="F130" s="3" t="str">
+      <c r="F130" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"Agua P":1}</v>
       </c>
-      <c r="G130" t="str">
+      <c r="G130" t="s">
+        <v>421</v>
+      </c>
+      <c r="H130" t="str">
         <f t="shared" si="3"/>
         <v>Agua P</v>
       </c>
-      <c r="H130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>253</v>
       </c>
@@ -5173,19 +5571,22 @@
       <c r="E131" t="s">
         <v>101</v>
       </c>
-      <c r="F131" s="3" t="str">
-        <f t="shared" ref="F131:F191" si="4" xml:space="preserve"> "{" &amp; """" &amp; G131 &amp; """" &amp; ":" &amp; H131 &amp; "}"</f>
+      <c r="F131" s="2" t="str">
+        <f t="shared" ref="F131:F191" si="4" xml:space="preserve"> "{" &amp; """" &amp; H131 &amp; """" &amp; ":" &amp; I131 &amp; "}"</f>
         <v>{"Sprite 1":1}</v>
       </c>
-      <c r="G131" t="str">
+      <c r="G131" t="s">
+        <v>421</v>
+      </c>
+      <c r="H131" t="str">
         <f t="shared" si="3"/>
         <v>Sprite 1</v>
       </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>253</v>
       </c>
@@ -5202,19 +5603,22 @@
       <c r="E132" t="s">
         <v>102</v>
       </c>
-      <c r="F132" s="3" t="str">
+      <c r="F132" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Coca Cola 1":1}</v>
       </c>
-      <c r="G132" t="str">
+      <c r="G132" t="s">
+        <v>421</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="3"/>
         <v>Coca Cola 1</v>
       </c>
-      <c r="H132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>253</v>
       </c>
@@ -5231,19 +5635,22 @@
       <c r="E133" t="s">
         <v>103</v>
       </c>
-      <c r="F133" s="3" t="str">
+      <c r="F133" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Coca Cola 1,5":1}</v>
       </c>
-      <c r="G133" t="str">
+      <c r="G133" t="s">
+        <v>421</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="3"/>
         <v>Coca Cola 1,5</v>
       </c>
-      <c r="H133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>253</v>
       </c>
@@ -5260,19 +5667,22 @@
       <c r="E134" t="s">
         <v>104</v>
       </c>
-      <c r="F134" s="3" t="str">
+      <c r="F134" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Cifrut":1}</v>
       </c>
-      <c r="G134" t="str">
+      <c r="G134" t="s">
+        <v>421</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="3"/>
         <v>Cifrut</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>254</v>
       </c>
@@ -5289,19 +5699,22 @@
       <c r="E135" t="s">
         <v>105</v>
       </c>
-      <c r="F135" s="3" t="str">
+      <c r="F135" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Lark":1}</v>
       </c>
-      <c r="G135" t="str">
+      <c r="G135" t="s">
+        <v>421</v>
+      </c>
+      <c r="H135" t="str">
         <f t="shared" si="3"/>
         <v>Lark</v>
       </c>
-      <c r="H135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>254</v>
       </c>
@@ -5318,19 +5731,22 @@
       <c r="E136" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="3" t="str">
+      <c r="F136" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Marlboro":1}</v>
       </c>
-      <c r="G136" t="str">
+      <c r="G136" t="s">
+        <v>421</v>
+      </c>
+      <c r="H136" t="str">
         <f t="shared" si="3"/>
         <v>Marlboro</v>
       </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>254</v>
       </c>
@@ -5347,15 +5763,18 @@
       <c r="E137" t="s">
         <v>144</v>
       </c>
-      <c r="F137" s="3" t="str">
+      <c r="F137" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G137" t="s">
+        <v>421</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>254</v>
       </c>
@@ -5372,15 +5791,18 @@
       <c r="E138" t="s">
         <v>145</v>
       </c>
-      <c r="F138" s="3" t="str">
+      <c r="F138" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G138" t="s">
+        <v>421</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>266</v>
       </c>
@@ -5397,15 +5819,18 @@
       <c r="E139" t="s">
         <v>127</v>
       </c>
-      <c r="F139" s="3" t="str">
+      <c r="F139" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G139" t="s">
+        <v>421</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>266</v>
       </c>
@@ -5422,15 +5847,18 @@
       <c r="E140" t="s">
         <v>128</v>
       </c>
-      <c r="F140" s="3" t="str">
+      <c r="F140" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G140" t="s">
+        <v>421</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>266</v>
       </c>
@@ -5447,15 +5875,18 @@
       <c r="E141" t="s">
         <v>129</v>
       </c>
-      <c r="F141" s="3" t="str">
+      <c r="F141" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G141" t="s">
+        <v>421</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>266</v>
       </c>
@@ -5472,15 +5903,18 @@
       <c r="E142" t="s">
         <v>130</v>
       </c>
-      <c r="F142" s="3" t="str">
+      <c r="F142" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G142" t="s">
+        <v>421</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>266</v>
       </c>
@@ -5497,15 +5931,18 @@
       <c r="E143" t="s">
         <v>131</v>
       </c>
-      <c r="F143" s="3" t="str">
+      <c r="F143" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G143" t="s">
+        <v>421</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>266</v>
       </c>
@@ -5522,15 +5959,18 @@
       <c r="E144" t="s">
         <v>132</v>
       </c>
-      <c r="F144" s="3" t="str">
+      <c r="F144" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G144" t="s">
+        <v>421</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>266</v>
       </c>
@@ -5547,15 +5987,18 @@
       <c r="E145" t="s">
         <v>133</v>
       </c>
-      <c r="F145" s="3" t="str">
+      <c r="F145" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G145" t="s">
+        <v>421</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>266</v>
       </c>
@@ -5572,15 +6015,18 @@
       <c r="E146" t="s">
         <v>134</v>
       </c>
-      <c r="F146" s="3" t="str">
+      <c r="F146" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G146" t="s">
+        <v>421</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>267</v>
       </c>
@@ -5597,15 +6043,18 @@
       <c r="E147" t="s">
         <v>135</v>
       </c>
-      <c r="F147" s="3" t="str">
+      <c r="F147" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G147" t="s">
+        <v>421</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>267</v>
       </c>
@@ -5622,15 +6071,18 @@
       <c r="E148" t="s">
         <v>269</v>
       </c>
-      <c r="F148" s="3" t="str">
+      <c r="F148" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G148" t="s">
+        <v>421</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>267</v>
       </c>
@@ -5647,15 +6099,18 @@
       <c r="E149" t="s">
         <v>270</v>
       </c>
-      <c r="F149" s="3" t="str">
+      <c r="F149" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G149" t="s">
+        <v>421</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -5672,15 +6127,18 @@
       <c r="E150" t="s">
         <v>136</v>
       </c>
-      <c r="F150" s="3" t="str">
+      <c r="F150" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G150" t="s">
+        <v>421</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>267</v>
       </c>
@@ -5697,15 +6155,18 @@
       <c r="E151" t="s">
         <v>268</v>
       </c>
-      <c r="F151" s="3" t="str">
+      <c r="F151" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G151" t="s">
+        <v>421</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>253</v>
       </c>
@@ -5721,18 +6182,21 @@
       <c r="E152" t="s">
         <v>298</v>
       </c>
-      <c r="F152" s="3" t="str">
+      <c r="F152" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"V220 grande":1}</v>
       </c>
       <c r="G152" t="s">
+        <v>421</v>
+      </c>
+      <c r="H152" t="s">
         <v>298</v>
       </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>253</v>
       </c>
@@ -5748,18 +6212,21 @@
       <c r="E153" t="s">
         <v>299</v>
       </c>
-      <c r="F153" s="3" t="str">
+      <c r="F153" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"V220 pequeño":1}</v>
       </c>
       <c r="G153" t="s">
+        <v>421</v>
+      </c>
+      <c r="H153" t="s">
         <v>299</v>
       </c>
-      <c r="H153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -5776,19 +6243,22 @@
       <c r="E154" t="s">
         <v>139</v>
       </c>
-      <c r="F154" s="3" t="str">
+      <c r="F154" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Menta":1}</v>
       </c>
-      <c r="G154" t="str">
-        <f t="shared" ref="G154:G160" si="5">E154</f>
+      <c r="G154" t="s">
+        <v>421</v>
+      </c>
+      <c r="H154" t="str">
+        <f t="shared" ref="H154:H160" si="5">E154</f>
         <v>Menta</v>
       </c>
-      <c r="H154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>271</v>
       </c>
@@ -5805,19 +6275,22 @@
       <c r="E155" t="s">
         <v>140</v>
       </c>
-      <c r="F155" s="3" t="str">
+      <c r="F155" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Trident":1}</v>
       </c>
-      <c r="G155" t="str">
+      <c r="G155" t="s">
+        <v>421</v>
+      </c>
+      <c r="H155" t="str">
         <f t="shared" si="5"/>
         <v>Trident</v>
       </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>271</v>
       </c>
@@ -5834,19 +6307,22 @@
       <c r="E156" t="s">
         <v>141</v>
       </c>
-      <c r="F156" s="3" t="str">
+      <c r="F156" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Trident Pack":1}</v>
       </c>
-      <c r="G156" t="str">
+      <c r="G156" t="s">
+        <v>421</v>
+      </c>
+      <c r="H156" t="str">
         <f t="shared" si="5"/>
         <v>Trident Pack</v>
       </c>
-      <c r="H156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>271</v>
       </c>
@@ -5863,19 +6339,22 @@
       <c r="E157" t="s">
         <v>143</v>
       </c>
-      <c r="F157" s="3" t="str">
+      <c r="F157" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Chupete":1}</v>
       </c>
-      <c r="G157" t="str">
+      <c r="G157" t="s">
+        <v>421</v>
+      </c>
+      <c r="H157" t="str">
         <f t="shared" si="5"/>
         <v>Chupete</v>
       </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>253</v>
       </c>
@@ -5892,19 +6371,22 @@
       <c r="E158" t="s">
         <v>146</v>
       </c>
-      <c r="F158" s="3" t="str">
+      <c r="F158" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Guitig":1}</v>
       </c>
-      <c r="G158" t="str">
+      <c r="G158" t="s">
+        <v>421</v>
+      </c>
+      <c r="H158" t="str">
         <f t="shared" si="5"/>
         <v>Guitig</v>
       </c>
-      <c r="H158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>250</v>
       </c>
@@ -5921,19 +6403,22 @@
       <c r="E159" t="s">
         <v>149</v>
       </c>
-      <c r="F159" s="3" t="str">
+      <c r="F159" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Coco Loko":1}</v>
       </c>
-      <c r="G159" t="str">
+      <c r="G159" t="s">
+        <v>421</v>
+      </c>
+      <c r="H159" t="str">
         <f t="shared" si="5"/>
         <v>Coco Loko</v>
       </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>271</v>
       </c>
@@ -5950,19 +6435,22 @@
       <c r="E160" t="s">
         <v>150</v>
       </c>
-      <c r="F160" s="3" t="str">
+      <c r="F160" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Manicho":1}</v>
       </c>
-      <c r="G160" t="str">
+      <c r="G160" t="s">
+        <v>421</v>
+      </c>
+      <c r="H160" t="str">
         <f t="shared" si="5"/>
         <v>Manicho</v>
       </c>
-      <c r="H160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>273</v>
       </c>
@@ -5978,18 +6466,21 @@
       <c r="E161" t="s">
         <v>329</v>
       </c>
-      <c r="F161" s="3" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; G161 &amp; """" &amp; ":" &amp; H161 &amp; "}"</f>
+      <c r="F161" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H161 &amp; """" &amp; ":" &amp; I161 &amp; "}"</f>
         <v>{"Siembra 1lt":2}</v>
       </c>
       <c r="G161" t="s">
+        <v>421</v>
+      </c>
+      <c r="H161" t="s">
         <v>205</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>273</v>
       </c>
@@ -6005,14 +6496,17 @@
       <c r="E162" t="s">
         <v>330</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F162" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G162" t="s">
+        <v>421</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>273</v>
       </c>
@@ -6028,15 +6522,18 @@
       <c r="E163" t="s">
         <v>331</v>
       </c>
-      <c r="F163" s="3" t="str">
+      <c r="F163" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G163" t="s">
+        <v>421</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>273</v>
       </c>
@@ -6052,15 +6549,18 @@
       <c r="E164" t="s">
         <v>332</v>
       </c>
-      <c r="F164" s="3" t="str">
+      <c r="F164" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G164" t="s">
+        <v>421</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>273</v>
       </c>
@@ -6076,15 +6576,18 @@
       <c r="E165" t="s">
         <v>333</v>
       </c>
-      <c r="F165" s="3" t="str">
+      <c r="F165" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G165" t="s">
+        <v>421</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>273</v>
       </c>
@@ -6100,15 +6603,18 @@
       <c r="E166" t="s">
         <v>334</v>
       </c>
-      <c r="F166" s="3" t="str">
+      <c r="F166" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G166" t="s">
+        <v>421</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>273</v>
       </c>
@@ -6124,18 +6630,21 @@
       <c r="E167" t="s">
         <v>335</v>
       </c>
-      <c r="F167" s="3" t="str">
+      <c r="F167" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Pilsener 1 Lt":3}</v>
       </c>
       <c r="G167" t="s">
+        <v>421</v>
+      </c>
+      <c r="H167" t="s">
         <v>202</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>273</v>
       </c>
@@ -6151,18 +6660,21 @@
       <c r="E168" t="s">
         <v>336</v>
       </c>
-      <c r="F168" s="3" t="str">
+      <c r="F168" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Club 850ml":3}</v>
       </c>
       <c r="G168" t="s">
+        <v>421</v>
+      </c>
+      <c r="H168" t="s">
         <v>198</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>273</v>
       </c>
@@ -6178,18 +6690,21 @@
       <c r="E169" t="s">
         <v>337</v>
       </c>
-      <c r="F169" s="3" t="str">
+      <c r="F169" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Siembra 1lt":3}</v>
       </c>
       <c r="G169" t="s">
+        <v>421</v>
+      </c>
+      <c r="H169" t="s">
         <v>205</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>273</v>
       </c>
@@ -6205,18 +6720,21 @@
       <c r="E170" t="s">
         <v>338</v>
       </c>
-      <c r="F170" s="3" t="str">
+      <c r="F170" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Corona 330ml":6}</v>
       </c>
       <c r="G170" t="s">
+        <v>421</v>
+      </c>
+      <c r="H170" t="s">
         <v>200</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>273</v>
       </c>
@@ -6232,18 +6750,21 @@
       <c r="E171" t="s">
         <v>339</v>
       </c>
-      <c r="F171" s="3" t="str">
+      <c r="F171" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Coronita 210ml":6}</v>
       </c>
       <c r="G171" t="s">
+        <v>421</v>
+      </c>
+      <c r="H171" t="s">
         <v>201</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>273</v>
       </c>
@@ -6259,18 +6780,21 @@
       <c r="E172" t="s">
         <v>340</v>
       </c>
-      <c r="F172" s="3" t="str">
+      <c r="F172" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Gran Malo 750ml":2}</v>
       </c>
       <c r="G172" t="s">
+        <v>421</v>
+      </c>
+      <c r="H172" t="s">
         <v>212</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>273</v>
       </c>
@@ -6286,18 +6810,21 @@
       <c r="E173" t="s">
         <v>341</v>
       </c>
-      <c r="F173" s="3" t="str">
+      <c r="F173" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Azteca Silver 750ml":1}</v>
       </c>
       <c r="G173" t="s">
+        <v>421</v>
+      </c>
+      <c r="H173" t="s">
         <v>215</v>
       </c>
-      <c r="H173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>273</v>
       </c>
@@ -6313,18 +6840,21 @@
       <c r="E174" t="s">
         <v>342</v>
       </c>
-      <c r="F174" s="3" t="str">
+      <c r="F174" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Canijo Tamarindo":1}</v>
       </c>
       <c r="G174" t="s">
+        <v>421</v>
+      </c>
+      <c r="H174" t="s">
         <v>216</v>
       </c>
-      <c r="H174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>273</v>
       </c>
@@ -6340,18 +6870,21 @@
       <c r="E175" t="s">
         <v>343</v>
       </c>
-      <c r="F175" s="3" t="str">
+      <c r="F175" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Antioqueño Tapa azul 375ml":2}</v>
       </c>
       <c r="G175" t="s">
+        <v>421</v>
+      </c>
+      <c r="H175" t="s">
         <v>225</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>273</v>
       </c>
@@ -6367,18 +6900,21 @@
       <c r="E176" t="s">
         <v>344</v>
       </c>
-      <c r="F176" s="3" t="str">
+      <c r="F176" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Zhumir Naranjilla 700ml":2}</v>
       </c>
       <c r="G176" t="s">
+        <v>421</v>
+      </c>
+      <c r="H176" t="s">
         <v>227</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>273</v>
       </c>
@@ -6394,18 +6930,21 @@
       <c r="E177" t="s">
         <v>345</v>
       </c>
-      <c r="F177" s="3" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; G177 &amp; """" &amp; ":" &amp; H177 &amp; "}"</f>
+      <c r="F177" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H177 &amp; """" &amp; ":" &amp; I177 &amp; "}"</f>
         <v>{"Norteño 750ml":1}</v>
       </c>
       <c r="G177" t="s">
+        <v>421</v>
+      </c>
+      <c r="H177" t="s">
         <v>229</v>
       </c>
-      <c r="H177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>273</v>
       </c>
@@ -6425,13 +6964,16 @@
         <v>418</v>
       </c>
       <c r="G178" t="s">
+        <v>421</v>
+      </c>
+      <c r="H178" t="s">
         <v>234</v>
       </c>
-      <c r="H178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="I178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>273</v>
       </c>
@@ -6447,18 +6989,21 @@
       <c r="E179" t="s">
         <v>347</v>
       </c>
-      <c r="F179" s="3" t="str">
+      <c r="F179" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Miraflores 750ml":2}</v>
       </c>
       <c r="G179" t="s">
+        <v>421</v>
+      </c>
+      <c r="H179" t="s">
         <v>235</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>273</v>
       </c>
@@ -6474,18 +7019,21 @@
       <c r="E180" t="s">
         <v>349</v>
       </c>
-      <c r="F180" s="3" t="str">
+      <c r="F180" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Haciendazo 1500ml":3}</v>
       </c>
       <c r="G180" t="s">
+        <v>421</v>
+      </c>
+      <c r="H180" t="s">
         <v>237</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>273</v>
       </c>
@@ -6504,11 +7052,14 @@
       <c r="F181" t="s">
         <v>419</v>
       </c>
-      <c r="H181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G181" t="s">
+        <v>421</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>273</v>
       </c>
@@ -6524,18 +7075,21 @@
       <c r="E182" t="s">
         <v>350</v>
       </c>
-      <c r="F182" s="3" t="str">
+      <c r="F182" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Barbados Blue Berry":2}</v>
       </c>
       <c r="G182" t="s">
+        <v>421</v>
+      </c>
+      <c r="H182" t="s">
         <v>219</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>273</v>
       </c>
@@ -6551,18 +7105,21 @@
       <c r="E183" t="s">
         <v>351</v>
       </c>
-      <c r="F183" s="3" t="str">
+      <c r="F183" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"Switch Bongo Bongo":3}</v>
       </c>
       <c r="G183" t="s">
+        <v>421</v>
+      </c>
+      <c r="H183" t="s">
         <v>281</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>273</v>
       </c>
@@ -6578,18 +7135,21 @@
       <c r="E184" t="s">
         <v>352</v>
       </c>
-      <c r="F184" s="3" t="str">
+      <c r="F184" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"RTD":3}</v>
       </c>
       <c r="G184" t="s">
+        <v>421</v>
+      </c>
+      <c r="H184" t="s">
         <v>90</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>274</v>
       </c>
@@ -6605,15 +7165,18 @@
       <c r="E185" t="s">
         <v>171</v>
       </c>
-      <c r="F185" s="3" t="str">
+      <c r="F185" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G185" t="s">
+        <v>421</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>274</v>
       </c>
@@ -6629,15 +7192,18 @@
       <c r="E186" t="s">
         <v>274</v>
       </c>
-      <c r="F186" s="3" t="str">
+      <c r="F186" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G186" t="s">
+        <v>421</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>266</v>
       </c>
@@ -6653,15 +7219,18 @@
       <c r="E187" t="s">
         <v>328</v>
       </c>
-      <c r="F187" s="3" t="str">
+      <c r="F187" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G187" t="s">
+        <v>421</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>208</v>
       </c>
@@ -6677,15 +7246,18 @@
       <c r="E188" t="s">
         <v>358</v>
       </c>
-      <c r="F188" s="3" t="str">
+      <c r="F188" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G188" t="s">
+        <v>421</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -6701,15 +7273,18 @@
       <c r="E189" t="s">
         <v>359</v>
       </c>
-      <c r="F189" s="3" t="str">
+      <c r="F189" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G189" t="s">
+        <v>421</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>208</v>
       </c>
@@ -6725,15 +7300,18 @@
       <c r="E190" t="s">
         <v>361</v>
       </c>
-      <c r="F190" s="3" t="str">
+      <c r="F190" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="G190" t="s">
+        <v>421</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -6749,17 +7327,21 @@
       <c r="E191" t="s">
         <v>360</v>
       </c>
-      <c r="F191" s="3" t="str">
+      <c r="F191" s="2" t="str">
         <f t="shared" si="4"/>
         <v>{"":1}</v>
       </c>
-      <c r="H191">
+      <c r="G191" t="s">
+        <v>421</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6767,7 +7349,7 @@
           <x14:formula1>
             <xm:f>Hoja1!$B$2:$B$95</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G47 G120:G123 G137:G151 G161:G192</xm:sqref>
+          <xm:sqref>H2:H47 H120:H123 H137:H151 H161:H192</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/productosV2.xlsx
+++ b/productosV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Documents\Chumazero_Ambato\ChumaBot\Bot_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A2F17-691A-408E-A3E8-678F8C1E0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61566CE9-C7E8-428B-8B1A-C689B02BC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="426">
   <si>
     <t>name</t>
   </si>
@@ -1309,6 +1309,9 @@
   </si>
   <si>
     <t>Zhumir Mango</t>
+  </si>
+  <si>
+    <t>Zhumir M TG</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1907,7 @@
       <c r="G7" t="s">
         <v>421</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>197</v>
       </c>
       <c r="I7">
@@ -3755,12 +3758,12 @@
         <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>425</v>
       </c>
       <c r="C71">
         <v>5.5</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E71" t="s">
@@ -7344,7 +7347,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61FC2263-E473-4073-9BC9-993B02413194}">
           <x14:formula1>
             <xm:f>Hoja1!$B$2:$B$95</xm:f>

--- a/productosV2.xlsx
+++ b/productosV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Documents\Chumazero_Ambato\ChumaBot\Bot_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61566CE9-C7E8-428B-8B1A-C689B02BC64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA93F8-9B71-4F7B-9C66-70B0AD05F887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1318,7 +1318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,6 +1341,14 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1384,7 +1392,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3101,7 +3109,7 @@
         <v>362</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>362</v>
@@ -3130,7 +3138,7 @@
       <c r="B50" t="s">
         <v>77</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>3.5</v>
       </c>
       <c r="D50" t="s">
@@ -3763,7 +3771,7 @@
       <c r="C71">
         <v>5.5</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" t="s">
         <v>424</v>
       </c>
       <c r="E71" t="s">

--- a/productosV2.xlsx
+++ b/productosV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Documents\Chumazero_Ambato\ChumaBot\Bot_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA93F8-9B71-4F7B-9C66-70B0AD05F887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964977CA-710B-42FF-974D-3CD548BD0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1318,7 +1318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1341,14 +1341,6 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1392,7 +1384,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3079,7 +3071,7 @@
         <v>45</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
         <v>216</v>
@@ -3559,7 +3551,7 @@
         <v>55</v>
       </c>
       <c r="C64">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
         <v>226</v>
@@ -3589,7 +3581,7 @@
         <v>56</v>
       </c>
       <c r="C65">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>227</v>
@@ -3619,7 +3611,7 @@
         <v>423</v>
       </c>
       <c r="C66">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
         <v>397</v>
@@ -3649,7 +3641,7 @@
         <v>57</v>
       </c>
       <c r="C67">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>228</v>
@@ -3919,7 +3911,7 @@
         <v>62</v>
       </c>
       <c r="C76">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
         <v>236</v>
@@ -3949,7 +3941,7 @@
         <v>63</v>
       </c>
       <c r="C77">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D77" t="s">
         <v>234</v>
@@ -3979,7 +3971,7 @@
         <v>64</v>
       </c>
       <c r="C78">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>235</v>
@@ -4009,7 +4001,7 @@
         <v>65</v>
       </c>
       <c r="C79">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>237</v>
@@ -4129,7 +4121,7 @@
         <v>110</v>
       </c>
       <c r="C83">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
         <v>237</v>

--- a/productosV2.xlsx
+++ b/productosV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Documents\Chumazero_Ambato\ChumaBot\Bot_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964977CA-710B-42FF-974D-3CD548BD0AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739D1CA-3500-4A39-AA36-EDE4335B6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="431">
   <si>
     <t>name</t>
   </si>
@@ -1312,6 +1312,21 @@
   </si>
   <si>
     <t>Zhumir M TG</t>
+  </si>
+  <si>
+    <t>Cubata mg</t>
+  </si>
+  <si>
+    <t>Cubata my</t>
+  </si>
+  <si>
+    <t>Cubata mango</t>
+  </si>
+  <si>
+    <t>Cubata maracuya</t>
+  </si>
+  <si>
+    <t>M Club 330 tg</t>
   </si>
 </sst>
 </file>
@@ -1378,13 +1393,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,7 +1795,7 @@
         <v>179</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> "{" &amp; """" &amp; H3 &amp; """" &amp; ":" &amp; I3 &amp; "}"</f>
+        <f t="shared" ref="F3:F67" si="0" xml:space="preserve"> "{" &amp; """" &amp; H3 &amp; """" &amp; ":" &amp; I3 &amp; "}"</f>
         <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G3" t="s">
@@ -1919,23 +1933,26 @@
         <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>430</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"":1}</v>
+        <f t="shared" ref="F8" si="1" xml:space="preserve"> "{" &amp; """" &amp; H8 &amp; """" &amp; ":" &amp; I8 &amp; "}"</f>
+        <v>{"Club 330ml":1}</v>
       </c>
       <c r="G8" t="s">
         <v>421</v>
+      </c>
+      <c r="H8" t="s">
+        <v>197</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1946,26 +1963,23 @@
         <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Coronita 210ml":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G9" t="s">
         <v>421</v>
-      </c>
-      <c r="H9" t="s">
-        <v>201</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1976,29 +1990,29 @@
         <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Inti 500ml":1.5}</v>
+        <v>{"Coronita 210ml":1}</v>
       </c>
       <c r="G10" t="s">
         <v>421</v>
       </c>
       <c r="H10" t="s">
-        <v>399</v>
-      </c>
-      <c r="I10" t="s">
-        <v>415</v>
+        <v>201</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -2006,16 +2020,16 @@
         <v>208</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>5.5</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2036,16 +2050,16 @@
         <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>5.5</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2066,26 +2080,29 @@
         <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>5.5</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"":1}</v>
+        <v>{"Inti 500ml":1.5}</v>
       </c>
       <c r="G13" t="s">
         <v>421</v>
       </c>
-      <c r="I13">
-        <v>1</v>
+      <c r="H13" t="s">
+        <v>399</v>
+      </c>
+      <c r="I13" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -2093,16 +2110,16 @@
         <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>5.5</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2120,16 +2137,16 @@
         <v>208</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2147,16 +2164,16 @@
         <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>3.5</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2174,26 +2191,23 @@
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca miniatura 50ml":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G17" t="s">
         <v>421</v>
-      </c>
-      <c r="H17" t="s">
-        <v>249</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2204,16 +2218,16 @@
         <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>5.5</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2234,26 +2248,26 @@
         <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>5.5</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Jagermeister Miniatura":1}</v>
+        <v>{"Azteca miniatura 50ml":1}</v>
       </c>
       <c r="G19" t="s">
         <v>421</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -2264,23 +2278,26 @@
         <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"":1}</v>
+        <v>{"Jagermeister Miniatura":1}</v>
       </c>
       <c r="G20" t="s">
         <v>421</v>
+      </c>
+      <c r="H20" t="s">
+        <v>247</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2291,16 +2308,16 @@
         <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2318,16 +2335,16 @@
         <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2345,16 +2362,16 @@
         <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>3.5</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2372,16 +2389,16 @@
         <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>3.5</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2399,16 +2416,16 @@
         <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>3.5</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2426,16 +2443,16 @@
         <v>208</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>3.5</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2453,16 +2470,16 @@
         <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>3.5</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2480,16 +2497,16 @@
         <v>208</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2507,16 +2524,16 @@
         <v>208</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2534,16 +2551,16 @@
         <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2561,29 +2578,26 @@
         <v>208</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C31">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Inti 500ml":0.5}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G31" t="s">
         <v>421</v>
       </c>
-      <c r="H31" t="s">
-        <v>399</v>
-      </c>
-      <c r="I31" t="s">
-        <v>416</v>
+      <c r="I31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -2591,53 +2605,53 @@
         <v>208</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"":1}</v>
+        <v>{"Inti 500ml":0.5}</v>
       </c>
       <c r="G32" t="s">
         <v>421</v>
       </c>
-      <c r="I32">
-        <v>1</v>
+      <c r="H32" t="s">
+        <v>399</v>
+      </c>
+      <c r="I32" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Club 330ml":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G33" t="s">
         <v>421</v>
-      </c>
-      <c r="H33" t="s">
-        <v>197</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2648,26 +2662,26 @@
         <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Club 850ml":1}</v>
+        <v>{"Club 330ml":1}</v>
       </c>
       <c r="G34" t="s">
         <v>421</v>
       </c>
       <c r="H34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2678,23 +2692,23 @@
         <v>209</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="D35" t="s">
         <v>198</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Club 850ml":1}</v>
       </c>
       <c r="G35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H35" t="s">
         <v>198</v>
@@ -2708,26 +2722,26 @@
         <v>209</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Club lata":1}</v>
+        <v>{"Club 850ml":1}</v>
       </c>
       <c r="G36" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2738,26 +2752,26 @@
         <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Corona 330ml":1}</v>
+        <v>{"Club lata":1}</v>
       </c>
       <c r="G37" t="s">
         <v>421</v>
       </c>
       <c r="H37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2768,26 +2782,26 @@
         <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Coronita 210ml":1}</v>
+        <v>{"Corona 330ml":1}</v>
       </c>
       <c r="G38" t="s">
         <v>421</v>
       </c>
       <c r="H38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -2798,26 +2812,26 @@
         <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="D39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Pilsener 1 Lt":1}</v>
+        <v>{"Coronita 210ml":1}</v>
       </c>
       <c r="G39" t="s">
         <v>421</v>
       </c>
       <c r="H39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -2828,23 +2842,23 @@
         <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D40" t="s">
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H40" t="s">
         <v>202</v>
@@ -2858,26 +2872,26 @@
         <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="D41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Siembra 1lt":1}</v>
+        <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H41" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2888,23 +2902,23 @@
         <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="D42" t="s">
         <v>205</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H42" t="s">
         <v>205</v>
@@ -2915,89 +2929,89 @@
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43">
-        <v>22.75</v>
+        <v>3.05</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>206</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Espuela 750ml":1}</v>
+        <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H43" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C44">
-        <v>38</v>
+        <v>22.75</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Gran Malo 750ml":1}</v>
+        <v>{"Espuela 750ml":1}</v>
       </c>
       <c r="G44" t="s">
         <v>421</v>
       </c>
       <c r="H44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca Silver 1000ml":1}</v>
+        <v>{"Gran Malo 750ml":1}</v>
       </c>
       <c r="G45" t="s">
         <v>421</v>
       </c>
       <c r="H45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -3008,26 +3022,26 @@
         <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca Silver 750ml":1}</v>
+        <v>{"Azteca Silver 1000ml":1}</v>
       </c>
       <c r="G46" t="s">
         <v>421</v>
       </c>
       <c r="H46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3038,26 +3052,26 @@
         <v>210</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Rancho 750ml":1}</v>
+        <v>{"Azteca Silver 750ml":1}</v>
       </c>
       <c r="G47" t="s">
         <v>421</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3068,26 +3082,26 @@
         <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Canijo Tamarindo":1}</v>
+        <v>{"Rancho 750ml":1}</v>
       </c>
       <c r="G48" t="s">
         <v>421</v>
       </c>
       <c r="H48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3098,26 +3112,26 @@
         <v>210</v>
       </c>
       <c r="B49" t="s">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="C49">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="E49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Smirnoff":1}</v>
+        <v>{"Canijo Tamarindo":1}</v>
       </c>
       <c r="G49" t="s">
         <v>421</v>
       </c>
       <c r="H49" t="s">
-        <v>362</v>
+        <v>216</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -3128,26 +3142,26 @@
         <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="3">
-        <v>3.5</v>
+        <v>362</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>373</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca miniatura 50ml":1}</v>
+        <v>{"Smirnoff":1}</v>
       </c>
       <c r="G50" t="s">
         <v>421</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -3155,29 +3169,29 @@
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C51">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="D51" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Blue Berry":1}</v>
+        <v>{"Azteca miniatura 50ml":1}</v>
       </c>
       <c r="G51" t="s">
         <v>421</v>
       </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3188,26 +3202,26 @@
         <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52">
         <v>6.5</v>
       </c>
       <c r="D52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Cannabis":1}</v>
+        <v>{"Barbados Blue Berry":1}</v>
       </c>
       <c r="G52" t="s">
         <v>421</v>
       </c>
       <c r="H52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -3218,26 +3232,26 @@
         <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53">
         <v>6.5</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbadados Cotton Candy":1}</v>
+        <v>{"Barbados Cannabis":1}</v>
       </c>
       <c r="G53" t="s">
         <v>421</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3248,26 +3262,26 @@
         <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>6.5</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Mythological Drink":1}</v>
+        <v>{"Barbadados Cotton Candy":1}</v>
       </c>
       <c r="G54" t="s">
         <v>421</v>
       </c>
       <c r="H54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3278,26 +3292,26 @@
         <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C55">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Blue Berry":1}</v>
+        <v>{"Barbados Mythological Drink":1}</v>
       </c>
       <c r="G55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H55" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3308,26 +3322,26 @@
         <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56">
         <v>5.5</v>
       </c>
       <c r="D56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Cannabis":1}</v>
+        <v>{"Barbados Blue Berry":1}</v>
       </c>
       <c r="G56" t="s">
         <v>422</v>
       </c>
       <c r="H56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3338,26 +3352,26 @@
         <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>5.5</v>
       </c>
       <c r="D57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbadados Cotton Candy":1}</v>
+        <v>{"Barbados Cannabis":1}</v>
       </c>
       <c r="G57" t="s">
         <v>422</v>
       </c>
       <c r="H57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3368,26 +3382,26 @@
         <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58">
         <v>5.5</v>
       </c>
       <c r="D58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Mythological Drink":1}</v>
+        <v>{"Barbadados Cotton Candy":1}</v>
       </c>
       <c r="G58" t="s">
         <v>422</v>
       </c>
       <c r="H58" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3398,26 +3412,26 @@
         <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Vodka 40":1}</v>
+        <v>{"Barbados Mythological Drink":1}</v>
       </c>
       <c r="G59" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H59" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3428,26 +3442,26 @@
         <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Cartago Guarana":1}</v>
+        <v>{"Vodka 40":1}</v>
       </c>
       <c r="G60" t="s">
         <v>421</v>
       </c>
       <c r="H60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3455,29 +3469,29 @@
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Ron Abuelo":1}</v>
+        <v>{"Cartago Guarana":1}</v>
       </c>
       <c r="G61" t="s">
         <v>421</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3485,29 +3499,29 @@
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>374</v>
+        <v>52</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Antioqueño Tapa azul 750ml":1}</v>
+        <v>{"Ron Abuelo":1}</v>
       </c>
       <c r="G62" t="s">
         <v>421</v>
       </c>
       <c r="H62" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3518,26 +3532,26 @@
         <v>223</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Antioqueño Tapa azul 375ml":1}</v>
+        <v>{"Antioqueño Tapa azul 750ml":1}</v>
       </c>
       <c r="G63" t="s">
         <v>421</v>
       </c>
       <c r="H63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -3548,26 +3562,26 @@
         <v>223</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Zhumir Coco Tropical 700ml":1}</v>
+        <v>{"Antioqueño Tapa azul 375ml":1}</v>
       </c>
       <c r="G64" t="s">
         <v>421</v>
       </c>
       <c r="H64" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -3578,26 +3592,26 @@
         <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E65" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Zhumir Naranjilla 700ml":1}</v>
+        <v>{"Zhumir Coco Tropical 700ml":1}</v>
       </c>
       <c r="G65" t="s">
         <v>421</v>
       </c>
       <c r="H65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3608,26 +3622,26 @@
         <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>423</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Zhumir Mango 700ml":1}</v>
+        <v>{"Zhumir Naranjilla 700ml":1}</v>
       </c>
       <c r="G66" t="s">
         <v>421</v>
       </c>
       <c r="H66" t="s">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3638,26 +3652,26 @@
         <v>223</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>423</v>
       </c>
       <c r="C67">
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="E67" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F130" si="1" xml:space="preserve"> "{" &amp; """" &amp; H67 &amp; """" &amp; ":" &amp; I67 &amp; "}"</f>
-        <v>{"Zhumir Pink":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Zhumir Mango 700ml":1}</v>
       </c>
       <c r="G67" t="s">
         <v>421</v>
       </c>
       <c r="H67" t="s">
-        <v>228</v>
+        <v>397</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3668,26 +3682,26 @@
         <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="C68">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E68" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="F68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Zhumir Coco Tropical 700ml":1}</v>
+        <f t="shared" ref="F68:F133" si="2" xml:space="preserve"> "{" &amp; """" &amp; H68 &amp; """" &amp; ":" &amp; I68 &amp; "}"</f>
+        <v>{"Zhumir Pink":1}</v>
       </c>
       <c r="G68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3698,26 +3712,26 @@
         <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C69">
         <v>5.5</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Zhumir Naranjilla 700ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Coco Tropical 700ml":1}</v>
       </c>
       <c r="G69" t="s">
         <v>422</v>
       </c>
       <c r="H69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3728,26 +3742,26 @@
         <v>223</v>
       </c>
       <c r="B70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C70">
         <v>5.5</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Zhumir Pink":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Naranjilla 700ml":1}</v>
       </c>
       <c r="G70" t="s">
         <v>422</v>
       </c>
       <c r="H70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3758,26 +3772,26 @@
         <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>122</v>
       </c>
       <c r="C71">
         <v>5.5</v>
       </c>
       <c r="D71" t="s">
-        <v>424</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s">
-        <v>396</v>
+        <v>265</v>
       </c>
       <c r="F71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Zhumir Mango 700ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Pink":1}</v>
       </c>
       <c r="G71" t="s">
         <v>422</v>
       </c>
       <c r="H71" t="s">
-        <v>397</v>
+        <v>228</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3788,26 +3802,26 @@
         <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>425</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D72" t="s">
-        <v>229</v>
+        <v>424</v>
       </c>
       <c r="E72" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Norteño 750ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Mango 700ml":1}</v>
       </c>
       <c r="G72" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H72" t="s">
-        <v>229</v>
+        <v>397</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3818,26 +3832,26 @@
         <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Norteño Black 750 ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Norteño 750ml":1}</v>
       </c>
       <c r="G73" t="s">
         <v>421</v>
       </c>
       <c r="H73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -3848,26 +3862,26 @@
         <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Norteño Gold 750ml ":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Norteño Black 750 ml":1}</v>
       </c>
       <c r="G74" t="s">
         <v>421</v>
       </c>
       <c r="H74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -3878,26 +3892,26 @@
         <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Norteño 375ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Norteño Gold 750ml ":1}</v>
       </c>
       <c r="G75" t="s">
         <v>421</v>
       </c>
       <c r="H75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3905,29 +3919,29 @@
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E76" t="s">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="F76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Fraile 1500ml ":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Norteño 375ml":1}</v>
       </c>
       <c r="G76" t="s">
         <v>421</v>
       </c>
       <c r="H76" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -3938,26 +3952,26 @@
         <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cavic Tinto 1000ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Fraile 1500ml ":1}</v>
       </c>
       <c r="G77" t="s">
         <v>421</v>
       </c>
       <c r="H77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -3968,26 +3982,26 @@
         <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Miraflores 750ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cavic Tinto 1000ml":1}</v>
       </c>
       <c r="G78" t="s">
         <v>421</v>
       </c>
       <c r="H78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -3998,26 +4012,26 @@
         <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Haciendazo 1500ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Miraflores 750ml":1}</v>
       </c>
       <c r="G79" t="s">
         <v>421</v>
       </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -4028,26 +4042,26 @@
         <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C80">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>392</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Fraile 1500ml ":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -4058,26 +4072,26 @@
         <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D81" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
       <c r="E81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cavic Tinto 1000ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Fraile 1500ml ":1}</v>
       </c>
       <c r="G81" t="s">
         <v>422</v>
       </c>
       <c r="H81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -4088,26 +4102,26 @@
         <v>233</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C82">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Miraflores 750ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cavic Tinto 1000ml":1}</v>
       </c>
       <c r="G82" t="s">
         <v>422</v>
       </c>
       <c r="H82" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4118,26 +4132,26 @@
         <v>233</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Haciendazo 1500ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Miraflores 750ml":1}</v>
       </c>
       <c r="G83" t="s">
         <v>422</v>
       </c>
       <c r="H83" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -4148,23 +4162,23 @@
         <v>233</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="C84">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="E84" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="F84" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G84" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H84" t="s">
         <v>237</v>
@@ -4175,29 +4189,29 @@
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="E85" t="s">
-        <v>383</v>
+        <v>66</v>
       </c>
       <c r="F85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Old Times Black 745ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G85" t="s">
         <v>421</v>
       </c>
       <c r="H85" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4208,26 +4222,26 @@
         <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C86">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Old Time Red 745cc":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Old Times Black 745ml":1}</v>
       </c>
       <c r="G86" t="s">
         <v>421</v>
       </c>
       <c r="H86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4238,26 +4252,26 @@
         <v>238</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C87">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Johnnie Walker Red 750 ml ":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Old Time Red 745cc":1}</v>
       </c>
       <c r="G87" t="s">
         <v>421</v>
       </c>
       <c r="H87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4268,26 +4282,26 @@
         <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Old Times Miel 750ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Johnnie Walker Red 750 ml ":1}</v>
       </c>
       <c r="G88" t="s">
         <v>421</v>
       </c>
       <c r="H88" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -4298,26 +4312,26 @@
         <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89">
         <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Old Times Manzana 750ml":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Old Times Miel 750ml":1}</v>
       </c>
       <c r="G89" t="s">
         <v>421</v>
       </c>
       <c r="H89" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4328,26 +4342,26 @@
         <v>238</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="E90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Buchanans":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Old Times Manzana 750ml":1}</v>
       </c>
       <c r="G90" t="s">
         <v>421</v>
       </c>
       <c r="H90" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -4358,26 +4372,26 @@
         <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Something Special":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Buchanans":1}</v>
       </c>
       <c r="G91" t="s">
         <v>421</v>
       </c>
       <c r="H91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -4388,26 +4402,26 @@
         <v>238</v>
       </c>
       <c r="B92" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="E92" t="s">
-        <v>248</v>
+        <v>389</v>
       </c>
       <c r="F92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"John Morris Petit":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Something Special":1}</v>
       </c>
       <c r="G92" t="s">
         <v>421</v>
       </c>
       <c r="H92" t="s">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -4415,29 +4429,29 @@
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C93">
-        <v>22</v>
+        <v>3.5</v>
       </c>
       <c r="D93" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E93" t="s">
-        <v>390</v>
+        <v>248</v>
       </c>
       <c r="F93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Gluksmaister litro":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"John Morris Petit":1}</v>
       </c>
       <c r="G93" t="s">
         <v>421</v>
       </c>
       <c r="H93" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4448,26 +4462,26 @@
         <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Jagermaister 1L":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Gluksmaister litro":1}</v>
       </c>
       <c r="G94" t="s">
         <v>421</v>
       </c>
       <c r="H94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -4478,26 +4492,26 @@
         <v>239</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>391</v>
       </c>
       <c r="F95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Jagermeister Miniatura":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Jagermaister 1L":1}</v>
       </c>
       <c r="G95" t="s">
         <v>421</v>
       </c>
       <c r="H95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -4505,29 +4519,29 @@
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C96">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="F96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Four Loko Blue ":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Jagermeister Miniatura":1}</v>
       </c>
       <c r="G96" t="s">
         <v>421</v>
       </c>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4538,26 +4552,26 @@
         <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C97">
         <v>5.5</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Four loko Gold ":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Four Loko Blue ":1}</v>
       </c>
       <c r="G97" t="s">
         <v>421</v>
       </c>
       <c r="H97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4568,26 +4582,26 @@
         <v>250</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C98">
         <v>5.5</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Four Loko Red":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Four loko Gold ":1}</v>
       </c>
       <c r="G98" t="s">
         <v>421</v>
       </c>
       <c r="H98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -4598,26 +4612,26 @@
         <v>250</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99">
         <v>5.5</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Four Loko Withe":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Four Loko Red":1}</v>
       </c>
       <c r="G99" t="s">
         <v>421</v>
       </c>
       <c r="H99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -4628,26 +4642,26 @@
         <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Jelly Four loko":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Four Loko Withe":1}</v>
       </c>
       <c r="G100" t="s">
         <v>421</v>
       </c>
       <c r="H100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -4655,29 +4669,29 @@
     </row>
     <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Gelatina Switch":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Jelly Four loko":1}</v>
       </c>
       <c r="G101" t="s">
         <v>421</v>
       </c>
       <c r="H101" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4688,26 +4702,26 @@
         <v>251</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C102">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="D102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Bongo Bongo":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Gelatina Switch":1}</v>
       </c>
       <c r="G102" t="s">
         <v>421</v>
       </c>
       <c r="H102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4718,26 +4732,26 @@
         <v>251</v>
       </c>
       <c r="B103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103">
         <v>4.5</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E103" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Daiquiri":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Bongo Bongo":1}</v>
       </c>
       <c r="G103" t="s">
         <v>421</v>
       </c>
       <c r="H103" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4748,26 +4762,26 @@
         <v>251</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104">
         <v>4.5</v>
       </c>
       <c r="D104" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E104" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Harta Demencia":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Daiquiri":1}</v>
       </c>
       <c r="G104" t="s">
         <v>421</v>
       </c>
       <c r="H104" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -4778,26 +4792,26 @@
         <v>251</v>
       </c>
       <c r="B105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C105">
         <v>4.5</v>
       </c>
       <c r="D105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Maracuya":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Harta Demencia":1}</v>
       </c>
       <c r="G105" t="s">
         <v>421</v>
       </c>
       <c r="H105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -4808,26 +4822,26 @@
         <v>251</v>
       </c>
       <c r="B106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C106">
         <v>4.5</v>
       </c>
       <c r="D106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Tamarindo":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Maracuya":1}</v>
       </c>
       <c r="G106" t="s">
         <v>421</v>
       </c>
       <c r="H106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4838,26 +4852,26 @@
         <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D107" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E107" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Bongo Bongo":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Tamarindo":1}</v>
       </c>
       <c r="G107" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H107" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4868,26 +4882,26 @@
         <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Daiquiri":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Bongo Bongo":1}</v>
       </c>
       <c r="G108" t="s">
         <v>422</v>
       </c>
       <c r="H108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4898,26 +4912,26 @@
         <v>251</v>
       </c>
       <c r="B109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Harta Demencia":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Daiquiri":1}</v>
       </c>
       <c r="G109" t="s">
         <v>422</v>
       </c>
       <c r="H109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -4928,26 +4942,26 @@
         <v>251</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E110" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Maracuya":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Harta Demencia":1}</v>
       </c>
       <c r="G110" t="s">
         <v>422</v>
       </c>
       <c r="H110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4958,26 +4972,26 @@
         <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E111" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Switch Tamarindo":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Maracuya":1}</v>
       </c>
       <c r="G111" t="s">
         <v>422</v>
       </c>
       <c r="H111" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4985,29 +4999,29 @@
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C112">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="E112" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="F112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"RTD":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Switch Tamarindo":1}</v>
       </c>
       <c r="G112" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H112" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5018,23 +5032,23 @@
         <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C113">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D113" t="s">
         <v>90</v>
       </c>
       <c r="E113" t="s">
-        <v>291</v>
+        <v>90</v>
       </c>
       <c r="F113" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"RTD":1}</v>
       </c>
       <c r="G113" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H113" t="s">
         <v>90</v>
@@ -5045,29 +5059,29 @@
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="C114">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D114" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="E114" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cubata Berrylicious":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"RTD":1}</v>
       </c>
       <c r="G114" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H114" t="s">
-        <v>292</v>
+        <v>90</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5078,26 +5092,26 @@
         <v>252</v>
       </c>
       <c r="B115" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115">
         <v>4.5</v>
       </c>
       <c r="D115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cubata Guarana":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata Berrylicious":1}</v>
       </c>
       <c r="G115" t="s">
         <v>421</v>
       </c>
       <c r="H115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5108,26 +5122,26 @@
         <v>252</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C116">
         <v>4.5</v>
       </c>
       <c r="D116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cubata Piña Paradice":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata Guarana":1}</v>
       </c>
       <c r="G116" t="s">
         <v>421</v>
       </c>
       <c r="H116" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5138,26 +5152,26 @@
         <v>252</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D117" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E117" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cubata Berrylicious":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata Piña Paradice":1}</v>
       </c>
       <c r="G117" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H117" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5168,26 +5182,28 @@
         <v>252</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>426</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D118" t="s">
-        <v>293</v>
-      </c>
-      <c r="E118" t="s">
-        <v>296</v>
+        <v>428</v>
+      </c>
+      <c r="E118" t="str">
+        <f>D118</f>
+        <v>Cubata mango</v>
       </c>
       <c r="F118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cubata Guarana":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata mango":1}</v>
       </c>
       <c r="G118" t="s">
-        <v>422</v>
-      </c>
-      <c r="H118" t="s">
-        <v>293</v>
+        <v>421</v>
+      </c>
+      <c r="H118" t="str">
+        <f>D118</f>
+        <v>Cubata mango</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5198,26 +5214,28 @@
         <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D119" t="s">
-        <v>294</v>
-      </c>
-      <c r="E119" t="s">
-        <v>297</v>
+        <v>429</v>
+      </c>
+      <c r="E119" t="str">
+        <f>D119</f>
+        <v>Cubata maracuya</v>
       </c>
       <c r="F119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Cubata Piña Paradice":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata maracuya":1}</v>
       </c>
       <c r="G119" t="s">
-        <v>422</v>
-      </c>
-      <c r="H119" t="s">
-        <v>294</v>
+        <v>421</v>
+      </c>
+      <c r="H119" t="str">
+        <f>D119</f>
+        <v>Cubata maracuya</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -5225,26 +5243,29 @@
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s">
-        <v>353</v>
+        <v>123</v>
       </c>
       <c r="C120">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="E120" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="F120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata Berrylicious":1}</v>
       </c>
       <c r="G120" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="H120" t="s">
+        <v>292</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5252,26 +5273,29 @@
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B121" t="s">
-        <v>354</v>
+        <v>124</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D121" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="E121" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="F121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata Guarana":1}</v>
       </c>
       <c r="G121" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="H121" t="s">
+        <v>293</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5279,27 +5303,29 @@
     </row>
     <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B122" t="s">
-        <v>356</v>
+        <v>125</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
-      <c r="D122" t="str">
-        <f>B122</f>
-        <v>Canelazo amazonico 500</v>
+      <c r="D122" t="s">
+        <v>294</v>
       </c>
       <c r="E122" t="s">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="F122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Cubata Piña Paradice":1}</v>
       </c>
       <c r="G122" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="H122" t="s">
+        <v>294</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5310,20 +5336,19 @@
         <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C123">
-        <v>3.5</v>
-      </c>
-      <c r="D123" t="str">
-        <f>B123</f>
-        <v>Canelazo frutos rojos 500</v>
+        <v>5.5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>355</v>
       </c>
       <c r="E123" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F123" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>{"":1}</v>
       </c>
       <c r="G123" t="s">
@@ -5335,31 +5360,26 @@
     </row>
     <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="B124" t="s">
-        <v>94</v>
+        <v>354</v>
       </c>
       <c r="C124">
-        <v>3.5</v>
-      </c>
-      <c r="D124" t="str">
-        <f>B124</f>
-        <v>Monster</v>
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>354</v>
       </c>
       <c r="E124" t="s">
-        <v>94</v>
+        <v>354</v>
       </c>
       <c r="F124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Monster":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"":1}</v>
       </c>
       <c r="G124" t="s">
         <v>421</v>
-      </c>
-      <c r="H124" t="str">
-        <f>E124</f>
-        <v>Monster</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5367,31 +5387,27 @@
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="B125" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" ref="D125:D160" si="2">B125</f>
-        <v>Redbull</v>
+        <f>B125</f>
+        <v>Canelazo amazonico 500</v>
       </c>
       <c r="E125" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="F125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Redbull":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"":1}</v>
       </c>
       <c r="G125" t="s">
         <v>421</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" ref="H125:H136" si="3">E125</f>
-        <v>Redbull</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5399,31 +5415,27 @@
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="B126" t="s">
-        <v>96</v>
+        <v>357</v>
       </c>
       <c r="C126">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="D126" t="str">
+        <f>B126</f>
+        <v>Canelazo frutos rojos 500</v>
+      </c>
+      <c r="E126" t="s">
+        <v>357</v>
+      </c>
+      <c r="F126" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Gatorade G</v>
-      </c>
-      <c r="E126" t="s">
-        <v>96</v>
-      </c>
-      <c r="F126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Gatorade G":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G126" t="s">
         <v>421</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="3"/>
-        <v>Gatorade G</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -5434,28 +5446,28 @@
         <v>253</v>
       </c>
       <c r="B127" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D127" t="str">
+        <f>B127</f>
+        <v>Monster</v>
+      </c>
+      <c r="E127" t="s">
+        <v>94</v>
+      </c>
+      <c r="F127" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Gatorade P</v>
-      </c>
-      <c r="E127" t="s">
-        <v>97</v>
-      </c>
-      <c r="F127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Gatorade P":1}</v>
+        <v>{"Monster":1}</v>
       </c>
       <c r="G127" t="s">
         <v>421</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="3"/>
-        <v>Gatorade P</v>
+        <f>E127</f>
+        <v>Monster</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5466,28 +5478,28 @@
         <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C128">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="str">
+        <f t="shared" ref="D128:D163" si="3">B128</f>
+        <v>Redbull</v>
+      </c>
+      <c r="E128" t="s">
+        <v>95</v>
+      </c>
+      <c r="F128" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Vive 100</v>
-      </c>
-      <c r="E128" t="s">
-        <v>98</v>
-      </c>
-      <c r="F128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Vive 100":1}</v>
+        <v>{"Redbull":1}</v>
       </c>
       <c r="G128" t="s">
         <v>421</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="3"/>
-        <v>Vive 100</v>
+        <f t="shared" ref="H128:H139" si="4">E128</f>
+        <v>Redbull</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5498,28 +5510,28 @@
         <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C129">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D129" t="str">
+        <f t="shared" si="3"/>
+        <v>Gatorade G</v>
+      </c>
+      <c r="E129" t="s">
+        <v>96</v>
+      </c>
+      <c r="F129" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Agua G</v>
-      </c>
-      <c r="E129" t="s">
-        <v>99</v>
-      </c>
-      <c r="F129" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Agua G":1}</v>
+        <v>{"Gatorade G":1}</v>
       </c>
       <c r="G129" t="s">
         <v>421</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="3"/>
-        <v>Agua G</v>
+        <f t="shared" si="4"/>
+        <v>Gatorade G</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5530,28 +5542,28 @@
         <v>253</v>
       </c>
       <c r="B130" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C130">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D130" t="str">
+        <f t="shared" si="3"/>
+        <v>Gatorade P</v>
+      </c>
+      <c r="E130" t="s">
+        <v>97</v>
+      </c>
+      <c r="F130" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Agua P</v>
-      </c>
-      <c r="E130" t="s">
-        <v>100</v>
-      </c>
-      <c r="F130" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"Agua P":1}</v>
+        <v>{"Gatorade P":1}</v>
       </c>
       <c r="G130" t="s">
         <v>421</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" si="3"/>
-        <v>Agua P</v>
+        <f t="shared" si="4"/>
+        <v>Gatorade P</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -5562,28 +5574,28 @@
         <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C131">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="D131" t="str">
+        <f t="shared" si="3"/>
+        <v>Vive 100</v>
+      </c>
+      <c r="E131" t="s">
+        <v>98</v>
+      </c>
+      <c r="F131" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Sprite 1</v>
-      </c>
-      <c r="E131" t="s">
-        <v>101</v>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" ref="F131:F191" si="4" xml:space="preserve"> "{" &amp; """" &amp; H131 &amp; """" &amp; ":" &amp; I131 &amp; "}"</f>
-        <v>{"Sprite 1":1}</v>
+        <v>{"Vive 100":1}</v>
       </c>
       <c r="G131" t="s">
         <v>421</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="3"/>
-        <v>Sprite 1</v>
+        <f t="shared" si="4"/>
+        <v>Vive 100</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5594,28 +5606,28 @@
         <v>253</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C132">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="D132" t="str">
+        <f t="shared" si="3"/>
+        <v>Agua G</v>
+      </c>
+      <c r="E132" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Coca Cola 1</v>
-      </c>
-      <c r="E132" t="s">
-        <v>102</v>
-      </c>
-      <c r="F132" s="2" t="str">
+        <v>{"Agua G":1}</v>
+      </c>
+      <c r="G132" t="s">
+        <v>421</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="4"/>
-        <v>{"Coca Cola 1":1}</v>
-      </c>
-      <c r="G132" t="s">
-        <v>421</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="3"/>
-        <v>Coca Cola 1</v>
+        <v>Agua G</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -5626,28 +5638,28 @@
         <v>253</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C133">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="D133" t="str">
+        <f t="shared" si="3"/>
+        <v>Agua P</v>
+      </c>
+      <c r="E133" t="s">
+        <v>100</v>
+      </c>
+      <c r="F133" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>Coca Cola 1,5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>103</v>
-      </c>
-      <c r="F133" s="2" t="str">
+        <v>{"Agua P":1}</v>
+      </c>
+      <c r="G133" t="s">
+        <v>421</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="4"/>
-        <v>{"Coca Cola 1,5":1}</v>
-      </c>
-      <c r="G133" t="s">
-        <v>421</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="3"/>
-        <v>Coca Cola 1,5</v>
+        <v>Agua P</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -5658,120 +5670,124 @@
         <v>253</v>
       </c>
       <c r="B134" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134">
+        <v>1.75</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="3"/>
+        <v>Sprite 1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="2" t="str">
+        <f t="shared" ref="F134:F194" si="5" xml:space="preserve"> "{" &amp; """" &amp; H134 &amp; """" &amp; ":" &amp; I134 &amp; "}"</f>
+        <v>{"Sprite 1":1}</v>
+      </c>
+      <c r="G134" t="s">
+        <v>421</v>
+      </c>
+      <c r="H134" t="str">
+        <f t="shared" si="4"/>
+        <v>Sprite 1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135">
+        <v>1.75</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="3"/>
+        <v>Coca Cola 1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>102</v>
+      </c>
+      <c r="F135" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Coca Cola 1":1}</v>
+      </c>
+      <c r="G135" t="s">
+        <v>421</v>
+      </c>
+      <c r="H135" t="str">
+        <f t="shared" si="4"/>
+        <v>Coca Cola 1</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>253</v>
+      </c>
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136">
+        <v>2.5</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="3"/>
+        <v>Coca Cola 1,5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>103</v>
+      </c>
+      <c r="F136" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Coca Cola 1,5":1}</v>
+      </c>
+      <c r="G136" t="s">
+        <v>421</v>
+      </c>
+      <c r="H136" t="str">
+        <f t="shared" si="4"/>
+        <v>Coca Cola 1,5</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" t="s">
         <v>104</v>
       </c>
-      <c r="C134">
+      <c r="C137">
         <v>0.75</v>
       </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
-        <v>Cifrut</v>
-      </c>
-      <c r="E134" t="s">
-        <v>104</v>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Cifrut":1}</v>
-      </c>
-      <c r="G134" t="s">
-        <v>421</v>
-      </c>
-      <c r="H134" t="str">
+      <c r="D137" t="str">
         <f t="shared" si="3"/>
         <v>Cifrut</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>254</v>
-      </c>
-      <c r="B135" t="s">
-        <v>105</v>
-      </c>
-      <c r="C135">
-        <v>0.5</v>
-      </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
-        <v>Lark</v>
-      </c>
-      <c r="E135" t="s">
-        <v>105</v>
-      </c>
-      <c r="F135" s="2" t="str">
+      <c r="E137" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Cifrut":1}</v>
+      </c>
+      <c r="G137" t="s">
+        <v>421</v>
+      </c>
+      <c r="H137" t="str">
         <f t="shared" si="4"/>
-        <v>{"Lark":1}</v>
-      </c>
-      <c r="G135" t="s">
-        <v>421</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="3"/>
-        <v>Lark</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>254</v>
-      </c>
-      <c r="B136" t="s">
-        <v>106</v>
-      </c>
-      <c r="C136">
-        <v>0.5</v>
-      </c>
-      <c r="D136" t="str">
-        <f t="shared" si="2"/>
-        <v>Marlboro</v>
-      </c>
-      <c r="E136" t="s">
-        <v>106</v>
-      </c>
-      <c r="F136" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Marlboro":1}</v>
-      </c>
-      <c r="G136" t="s">
-        <v>421</v>
-      </c>
-      <c r="H136" t="str">
-        <f t="shared" si="3"/>
-        <v>Marlboro</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>254</v>
-      </c>
-      <c r="B137" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137">
-        <v>4.5</v>
-      </c>
-      <c r="D137" t="str">
-        <f t="shared" si="2"/>
-        <v>Media Lark</v>
-      </c>
-      <c r="E137" t="s">
-        <v>144</v>
-      </c>
-      <c r="F137" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G137" t="s">
-        <v>421</v>
+        <v>Cifrut</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -5782,24 +5798,28 @@
         <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C138">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="2"/>
-        <v>Media Marlboro</v>
+        <f t="shared" si="3"/>
+        <v>Lark</v>
       </c>
       <c r="E138" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="F138" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Lark":1}</v>
+      </c>
+      <c r="G138" t="s">
+        <v>421</v>
+      </c>
+      <c r="H138" t="str">
         <f t="shared" si="4"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G138" t="s">
-        <v>421</v>
+        <v>Lark</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -5807,27 +5827,31 @@
     </row>
     <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C139">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="2"/>
-        <v>Picadita de Carne</v>
+        <f t="shared" si="3"/>
+        <v>Marlboro</v>
       </c>
       <c r="E139" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F139" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Marlboro":1}</v>
+      </c>
+      <c r="G139" t="s">
+        <v>421</v>
+      </c>
+      <c r="H139" t="str">
         <f t="shared" si="4"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G139" t="s">
-        <v>421</v>
+        <v>Marlboro</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -5835,23 +5859,23 @@
     </row>
     <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C140">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="2"/>
-        <v>Picadita de Pollo</v>
+        <f t="shared" si="3"/>
+        <v>Media Lark</v>
       </c>
       <c r="E140" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F140" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G140" t="s">
@@ -5863,23 +5887,23 @@
     </row>
     <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C141">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="2"/>
-        <v>Doriloco de Carne</v>
+        <f t="shared" si="3"/>
+        <v>Media Marlboro</v>
       </c>
       <c r="E141" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F141" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G141" t="s">
@@ -5894,20 +5918,20 @@
         <v>266</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C142">
         <v>2.5</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="2"/>
-        <v>Doriloco de Pollo</v>
+        <f t="shared" si="3"/>
+        <v>Picadita de Carne</v>
       </c>
       <c r="E142" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F142" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G142" t="s">
@@ -5922,20 +5946,20 @@
         <v>266</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C143">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D143" t="str">
-        <f>B143</f>
-        <v>Hielos</v>
+        <f t="shared" si="3"/>
+        <v>Picadita de Pollo</v>
       </c>
       <c r="E143" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F143" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G143" t="s">
@@ -5950,20 +5974,20 @@
         <v>266</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C144">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="2"/>
-        <v>Limon</v>
+        <f t="shared" si="3"/>
+        <v>Doriloco de Carne</v>
       </c>
       <c r="E144" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F144" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G144" t="s">
@@ -5978,20 +6002,20 @@
         <v>266</v>
       </c>
       <c r="B145" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="2"/>
-        <v>Chamoyada</v>
+        <f t="shared" si="3"/>
+        <v>Doriloco de Pollo</v>
       </c>
       <c r="E145" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F145" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G145" t="s">
@@ -6006,20 +6030,20 @@
         <v>266</v>
       </c>
       <c r="B146" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="2"/>
-        <v>Canguil</v>
+        <f>B146</f>
+        <v>Hielos</v>
       </c>
       <c r="E146" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F146" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G146" t="s">
@@ -6031,23 +6055,23 @@
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B147" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C147">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="2"/>
-        <v>Shot de Tequila</v>
+        <f t="shared" si="3"/>
+        <v>Limon</v>
       </c>
       <c r="E147" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F147" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G147" t="s">
@@ -6059,23 +6083,23 @@
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B148" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="C148">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="2"/>
-        <v>Shot de Whisky</v>
+        <f t="shared" si="3"/>
+        <v>Chamoyada</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="F148" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G148" t="s">
@@ -6087,23 +6111,23 @@
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="C149">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="2"/>
-        <v>Shot de Hierbas</v>
+        <f t="shared" si="3"/>
+        <v>Canguil</v>
       </c>
       <c r="E149" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="F149" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G149" t="s">
@@ -6118,20 +6142,20 @@
         <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150">
         <v>1.5</v>
       </c>
       <c r="D150" t="str">
-        <f>B150</f>
-        <v>Shot de Vodka</v>
+        <f t="shared" si="3"/>
+        <v>Shot de Tequila</v>
       </c>
       <c r="E150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F150" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G150" t="s">
@@ -6146,20 +6170,20 @@
         <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C151">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="2"/>
-        <v>Shot Canelazo</v>
+        <f t="shared" si="3"/>
+        <v>Shot de Whisky</v>
       </c>
       <c r="E151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F151" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G151" t="s">
@@ -6171,29 +6195,27 @@
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>270</v>
       </c>
       <c r="C152">
         <v>1.5</v>
       </c>
-      <c r="D152" t="s">
-        <v>298</v>
+      <c r="D152" t="str">
+        <f t="shared" si="3"/>
+        <v>Shot de Hierbas</v>
       </c>
       <c r="E152" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="F152" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"V220 grande":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
       </c>
       <c r="G152" t="s">
         <v>421</v>
-      </c>
-      <c r="H152" t="s">
-        <v>298</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -6201,29 +6223,27 @@
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>299</v>
+        <v>1.5</v>
+      </c>
+      <c r="D153" t="str">
+        <f>B153</f>
+        <v>Shot de Vodka</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>136</v>
       </c>
       <c r="F153" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"V220 pequeño":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
       </c>
       <c r="G153" t="s">
         <v>421</v>
-      </c>
-      <c r="H153" t="s">
-        <v>299</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6231,31 +6251,27 @@
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="C154">
-        <v>0.1</v>
+        <v>0.75</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="2"/>
-        <v>Menta</v>
+        <f t="shared" si="3"/>
+        <v>Shot Canelazo</v>
       </c>
       <c r="E154" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="F154" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Menta":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
       </c>
       <c r="G154" t="s">
         <v>421</v>
-      </c>
-      <c r="H154" t="str">
-        <f t="shared" ref="H154:H160" si="5">E154</f>
-        <v>Menta</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -6263,31 +6279,29 @@
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C155">
-        <v>0.15</v>
-      </c>
-      <c r="D155" t="str">
-        <f t="shared" si="2"/>
-        <v>Trident</v>
+        <v>1.5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>298</v>
       </c>
       <c r="E155" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="F155" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Trident":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"V220 grande":1}</v>
       </c>
       <c r="G155" t="s">
         <v>421</v>
       </c>
-      <c r="H155" t="str">
-        <f t="shared" si="5"/>
-        <v>Trident</v>
+      <c r="H155" t="s">
+        <v>298</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6295,31 +6309,29 @@
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B156" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C156">
-        <v>0.75</v>
-      </c>
-      <c r="D156" t="str">
-        <f t="shared" si="2"/>
-        <v>Trident Pack</v>
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>299</v>
       </c>
       <c r="E156" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="F156" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Trident Pack":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"V220 pequeño":1}</v>
       </c>
       <c r="G156" t="s">
         <v>421</v>
       </c>
-      <c r="H156" t="str">
-        <f t="shared" si="5"/>
-        <v>Trident Pack</v>
+      <c r="H156" t="s">
+        <v>299</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6330,28 +6342,28 @@
         <v>271</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C157">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="2"/>
-        <v>Chupete</v>
+        <f t="shared" si="3"/>
+        <v>Menta</v>
       </c>
       <c r="E157" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F157" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Chupete":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Menta":1}</v>
       </c>
       <c r="G157" t="s">
         <v>421</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="5"/>
-        <v>Chupete</v>
+        <f t="shared" ref="H157:H163" si="6">E157</f>
+        <v>Menta</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6359,31 +6371,31 @@
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="B158" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C158">
-        <v>1.75</v>
+        <v>0.15</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="2"/>
-        <v>Guitig</v>
+        <f t="shared" si="3"/>
+        <v>Trident</v>
       </c>
       <c r="E158" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F158" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Guitig":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Trident":1}</v>
       </c>
       <c r="G158" t="s">
         <v>421</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="5"/>
-        <v>Guitig</v>
+        <f t="shared" si="6"/>
+        <v>Trident</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6391,31 +6403,31 @@
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>0.75</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="2"/>
-        <v>Coco Loko</v>
+        <f t="shared" si="3"/>
+        <v>Trident Pack</v>
       </c>
       <c r="E159" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F159" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Coco Loko":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Trident Pack":1}</v>
       </c>
       <c r="G159" t="s">
         <v>421</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="5"/>
-        <v>Coco Loko</v>
+        <f t="shared" si="6"/>
+        <v>Trident Pack</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6426,28 +6438,28 @@
         <v>271</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C160">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="2"/>
-        <v>Manicho</v>
+        <f t="shared" si="3"/>
+        <v>Chupete</v>
       </c>
       <c r="E160" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F160" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Manicho":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Chupete":1}</v>
       </c>
       <c r="G160" t="s">
         <v>421</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="5"/>
-        <v>Manicho</v>
+        <f t="shared" si="6"/>
+        <v>Chupete</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6455,55 +6467,63 @@
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C161">
-        <v>8.5</v>
-      </c>
-      <c r="D161" t="s">
-        <v>311</v>
+        <v>1.75</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="3"/>
+        <v>Guitig</v>
       </c>
       <c r="E161" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
       <c r="F161" s="2" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; H161 &amp; """" &amp; ":" &amp; I161 &amp; "}"</f>
-        <v>{"Siembra 1lt":2}</v>
+        <f t="shared" si="5"/>
+        <v>{"Guitig":1}</v>
       </c>
       <c r="G161" t="s">
         <v>421</v>
       </c>
-      <c r="H161" t="s">
-        <v>205</v>
+      <c r="H161" t="str">
+        <f t="shared" si="6"/>
+        <v>Guitig</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C162">
-        <v>9</v>
-      </c>
-      <c r="D162" t="s">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="3"/>
+        <v>Coco Loko</v>
       </c>
       <c r="E162" t="s">
-        <v>330</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>417</v>
+        <v>149</v>
+      </c>
+      <c r="F162" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Coco Loko":1}</v>
       </c>
       <c r="G162" t="s">
         <v>421</v>
+      </c>
+      <c r="H162" t="str">
+        <f t="shared" si="6"/>
+        <v>Coco Loko</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6511,26 +6531,31 @@
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C163">
-        <v>9</v>
-      </c>
-      <c r="D163" t="s">
-        <v>313</v>
+        <v>0.75</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="3"/>
+        <v>Manicho</v>
       </c>
       <c r="E163" t="s">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="F163" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Manicho":1}</v>
       </c>
       <c r="G163" t="s">
         <v>421</v>
+      </c>
+      <c r="H163" t="str">
+        <f t="shared" si="6"/>
+        <v>Manicho</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -6541,26 +6566,29 @@
         <v>273</v>
       </c>
       <c r="B164" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="D164" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E164" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F164" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
+        <f xml:space="preserve"> "{" &amp; """" &amp; H164 &amp; """" &amp; ":" &amp; I164 &amp; "}"</f>
+        <v>{"Siembra 1lt":2}</v>
       </c>
       <c r="G164" t="s">
         <v>421</v>
       </c>
+      <c r="H164" t="s">
+        <v>205</v>
+      </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6568,20 +6596,19 @@
         <v>273</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C165">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E165" t="s">
-        <v>333</v>
-      </c>
-      <c r="F165" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
+        <v>330</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="G165" t="s">
         <v>421</v>
@@ -6595,19 +6622,19 @@
         <v>273</v>
       </c>
       <c r="B166" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C166">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E166" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F166" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G166" t="s">
@@ -6622,29 +6649,26 @@
         <v>273</v>
       </c>
       <c r="B167" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C167">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D167" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="E167" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F167" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Pilsener 1 Lt":3}</v>
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
       </c>
       <c r="G167" t="s">
         <v>421</v>
       </c>
-      <c r="H167" t="s">
-        <v>202</v>
-      </c>
       <c r="I167">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6652,29 +6676,26 @@
         <v>273</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C168">
         <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="E168" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F168" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Club 850ml":3}</v>
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
       </c>
       <c r="G168" t="s">
         <v>421</v>
       </c>
-      <c r="H168" t="s">
-        <v>198</v>
-      </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6682,29 +6703,26 @@
         <v>273</v>
       </c>
       <c r="B169" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C169">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F169" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Siembra 1lt":3}</v>
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
       </c>
       <c r="G169" t="s">
         <v>421</v>
       </c>
-      <c r="H169" t="s">
-        <v>205</v>
-      </c>
       <c r="I169">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6712,29 +6730,29 @@
         <v>273</v>
       </c>
       <c r="B170" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C170">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F170" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Corona 330ml":6}</v>
+        <f t="shared" si="5"/>
+        <v>{"Pilsener 1 Lt":3}</v>
       </c>
       <c r="G170" t="s">
         <v>421</v>
       </c>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I170">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6742,29 +6760,29 @@
         <v>273</v>
       </c>
       <c r="B171" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C171">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Coronita 210ml":6}</v>
+        <f t="shared" si="5"/>
+        <v>{"Club 850ml":3}</v>
       </c>
       <c r="G171" t="s">
         <v>421</v>
       </c>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I171">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6772,29 +6790,29 @@
         <v>273</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C172">
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="D172" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F172" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Gran Malo 750ml":2}</v>
+        <f t="shared" si="5"/>
+        <v>{"Siembra 1lt":3}</v>
       </c>
       <c r="G172" t="s">
         <v>421</v>
       </c>
       <c r="H172" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6802,29 +6820,29 @@
         <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C173">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="D173" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Azteca Silver 750ml":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Corona 330ml":6}</v>
       </c>
       <c r="G173" t="s">
         <v>421</v>
       </c>
       <c r="H173" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6832,29 +6850,29 @@
         <v>273</v>
       </c>
       <c r="B174" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C174">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F174" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Canijo Tamarindo":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Coronita 210ml":6}</v>
       </c>
       <c r="G174" t="s">
         <v>421</v>
       </c>
       <c r="H174" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6862,26 +6880,26 @@
         <v>273</v>
       </c>
       <c r="B175" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C175">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D175" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Antioqueño Tapa azul 375ml":2}</v>
+        <f t="shared" si="5"/>
+        <v>{"Gran Malo 750ml":2}</v>
       </c>
       <c r="G175" t="s">
         <v>421</v>
       </c>
       <c r="H175" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -6892,29 +6910,29 @@
         <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C176">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E176" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F176" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Zhumir Naranjilla 700ml":2}</v>
+        <f t="shared" si="5"/>
+        <v>{"Azteca Silver 750ml":1}</v>
       </c>
       <c r="G176" t="s">
         <v>421</v>
       </c>
       <c r="H176" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6922,58 +6940,59 @@
         <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C177">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D177" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F177" s="2" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; H177 &amp; """" &amp; ":" &amp; I177 &amp; "}"</f>
-        <v>{"Norteño 750ml":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Canijo Tamarindo":1}</v>
       </c>
       <c r="G177" t="s">
         <v>421</v>
       </c>
       <c r="H177" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>273</v>
       </c>
       <c r="B178" t="s">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="C178">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D178" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E178" t="s">
-        <v>346</v>
-      </c>
-      <c r="F178" t="s">
-        <v>418</v>
+        <v>343</v>
+      </c>
+      <c r="F178" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Antioqueño Tapa azul 375ml":2}</v>
       </c>
       <c r="G178" t="s">
         <v>421</v>
       </c>
       <c r="H178" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6981,26 +7000,26 @@
         <v>273</v>
       </c>
       <c r="B179" t="s">
-        <v>321</v>
+        <v>166</v>
       </c>
       <c r="C179">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D179" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Miraflores 750ml":2}</v>
+        <f t="shared" si="5"/>
+        <v>{"Zhumir Naranjilla 700ml":2}</v>
       </c>
       <c r="G179" t="s">
         <v>421</v>
       </c>
       <c r="H179" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I179">
         <v>2</v>
@@ -7011,29 +7030,29 @@
         <v>273</v>
       </c>
       <c r="B180" t="s">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="C180">
         <v>12</v>
       </c>
       <c r="D180" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F180" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Haciendazo 1500ml":3}</v>
+        <f xml:space="preserve"> "{" &amp; """" &amp; H180 &amp; """" &amp; ":" &amp; I180 &amp; "}"</f>
+        <v>{"Norteño 750ml":1}</v>
       </c>
       <c r="G180" t="s">
         <v>421</v>
       </c>
       <c r="H180" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I180">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7041,22 +7060,25 @@
         <v>273</v>
       </c>
       <c r="B181" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D181" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G181" t="s">
         <v>421</v>
+      </c>
+      <c r="H181" t="s">
+        <v>234</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -7067,26 +7089,26 @@
         <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="C182">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D182" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E182" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F182" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Barbados Blue Berry":2}</v>
+        <f t="shared" si="5"/>
+        <v>{"Miraflores 750ml":2}</v>
       </c>
       <c r="G182" t="s">
         <v>421</v>
       </c>
       <c r="H182" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="I182">
         <v>2</v>
@@ -7097,160 +7119,165 @@
         <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>322</v>
       </c>
       <c r="C183">
         <v>12</v>
       </c>
       <c r="D183" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F183" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"Switch Bongo Bongo":3}</v>
+        <f t="shared" si="5"/>
+        <v>{"Haciendazo 1500ml":3}</v>
       </c>
       <c r="G183" t="s">
         <v>421</v>
       </c>
       <c r="H183" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="I183">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>273</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>323</v>
       </c>
       <c r="C184">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="E184" t="s">
-        <v>352</v>
-      </c>
-      <c r="F184" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"RTD":3}</v>
+        <v>348</v>
+      </c>
+      <c r="F184" t="s">
+        <v>419</v>
       </c>
       <c r="G184" t="s">
         <v>421</v>
       </c>
-      <c r="H184" t="s">
-        <v>90</v>
-      </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C185">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="D185" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="E185" t="s">
-        <v>171</v>
+        <v>350</v>
       </c>
       <c r="F185" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Barbados Blue Berry":2}</v>
       </c>
       <c r="G185" t="s">
         <v>421</v>
       </c>
+      <c r="H185" t="s">
+        <v>219</v>
+      </c>
       <c r="I185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="C186">
-        <v>1.25</v>
+        <v>12</v>
       </c>
       <c r="D186" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="E186" t="s">
-        <v>274</v>
+        <v>351</v>
       </c>
       <c r="F186" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Switch Bongo Bongo":3}</v>
       </c>
       <c r="G186" t="s">
         <v>421</v>
       </c>
+      <c r="H186" t="s">
+        <v>281</v>
+      </c>
       <c r="I186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B187" t="s">
-        <v>328</v>
+        <v>170</v>
       </c>
       <c r="C187">
-        <v>1.75</v>
+        <v>11.5</v>
       </c>
       <c r="D187" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E187" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="F187" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{"":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"RTD":3}</v>
       </c>
       <c r="G187" t="s">
         <v>421</v>
       </c>
+      <c r="H187" t="s">
+        <v>90</v>
+      </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B188" t="s">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="C188">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="D188" t="s">
-        <v>358</v>
+        <v>171</v>
       </c>
       <c r="E188" t="s">
-        <v>358</v>
+        <v>171</v>
       </c>
       <c r="F188" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G188" t="s">
@@ -7262,22 +7289,22 @@
     </row>
     <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="B189" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="C189">
-        <v>18</v>
+        <v>1.25</v>
       </c>
       <c r="D189" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="F189" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G189" t="s">
@@ -7289,22 +7316,22 @@
     </row>
     <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="B190" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="C190">
-        <v>12</v>
+        <v>1.75</v>
       </c>
       <c r="D190" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="F190" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
       <c r="G190" t="s">
@@ -7319,25 +7346,106 @@
         <v>208</v>
       </c>
       <c r="B191" t="s">
+        <v>363</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>358</v>
+      </c>
+      <c r="E191" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G191" t="s">
+        <v>421</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>208</v>
+      </c>
+      <c r="B192" t="s">
+        <v>364</v>
+      </c>
+      <c r="C192">
+        <v>18</v>
+      </c>
+      <c r="D192" t="s">
+        <v>359</v>
+      </c>
+      <c r="E192" t="s">
+        <v>359</v>
+      </c>
+      <c r="F192" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G192" t="s">
+        <v>421</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193" t="s">
+        <v>361</v>
+      </c>
+      <c r="E193" t="s">
+        <v>361</v>
+      </c>
+      <c r="F193" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G193" t="s">
+        <v>421</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>208</v>
+      </c>
+      <c r="B194" t="s">
         <v>366</v>
       </c>
-      <c r="C191">
+      <c r="C194">
         <v>18</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D194" t="s">
         <v>360</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E194" t="s">
         <v>360</v>
       </c>
-      <c r="F191" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="F194" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
-      <c r="G191" t="s">
-        <v>421</v>
-      </c>
-      <c r="I191">
+      <c r="G194" t="s">
+        <v>421</v>
+      </c>
+      <c r="I194">
         <v>1</v>
       </c>
     </row>
@@ -7347,12 +7455,12 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61FC2263-E473-4073-9BC9-993B02413194}">
           <x14:formula1>
             <xm:f>Hoja1!$B$2:$B$95</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H47 H120:H123 H137:H151 H161:H192</xm:sqref>
+          <xm:sqref>H164:H195 H123:H126 H140:H154 H2:H48</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/productosV2.xlsx
+++ b/productosV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairo\Documents\Chumazero_Ambato\ChumaBot\Bot_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739D1CA-3500-4A39-AA36-EDE4335B6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D200F8-E917-440E-8071-F3EB3D0FEBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,7 +1333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,6 +1356,14 @@
       <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1393,12 +1401,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1795,7 +1804,7 @@
         <v>179</v>
       </c>
       <c r="F3" s="2" t="str">
-        <f t="shared" ref="F3:F67" si="0" xml:space="preserve"> "{" &amp; """" &amp; H3 &amp; """" &amp; ":" &amp; I3 &amp; "}"</f>
+        <f t="shared" ref="F3:F75" si="0" xml:space="preserve"> "{" &amp; """" &amp; H3 &amp; """" &amp; ":" &amp; I3 &amp; "}"</f>
         <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G3" t="s">
@@ -2635,263 +2644,241 @@
         <v>208</v>
       </c>
       <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H33 &amp; """" &amp; ":" &amp; I33 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G33" t="s">
+        <v>421</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H34 &amp; """" &amp; ":" &amp; I34 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G34" t="s">
+        <v>421</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" t="s">
+        <v>361</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H35 &amp; """" &amp; ":" &amp; I35 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G35" t="s">
+        <v>421</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>360</v>
+      </c>
+      <c r="E36" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H36 &amp; """" &amp; ":" &amp; I36 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G36" t="s">
+        <v>421</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>355</v>
+      </c>
+      <c r="E37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H37 &amp; """" &amp; ":" &amp; I37 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G37" t="s">
+        <v>421</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H38 &amp; """" &amp; ":" &amp; I38 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G38" t="s">
+        <v>421</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="str">
+        <f>B39</f>
+        <v>Canelazo amazonico 500</v>
+      </c>
+      <c r="E39" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H39 &amp; """" &amp; ":" &amp; I39 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G39" t="s">
+        <v>421</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>357</v>
+      </c>
+      <c r="C40">
+        <v>4.5</v>
+      </c>
+      <c r="D40" t="str">
+        <f>B40</f>
+        <v>Canelazo frutos rojos 500</v>
+      </c>
+      <c r="E40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H40 &amp; """" &amp; ":" &amp; I40 &amp; "}"</f>
+        <v>{"":1}</v>
+      </c>
+      <c r="G40" t="s">
+        <v>421</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
         <v>148</v>
       </c>
-      <c r="C33">
+      <c r="C41">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D41" t="s">
         <v>148</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E41" t="s">
         <v>148</v>
       </c>
-      <c r="F33" s="2" t="str">
+      <c r="F41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"":1}</v>
       </c>
-      <c r="G33" t="s">
-        <v>421</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Club 330ml":1}</v>
-      </c>
-      <c r="G34" t="s">
-        <v>421</v>
-      </c>
-      <c r="H34" t="s">
-        <v>197</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35">
-        <v>3.75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Club 850ml":1}</v>
-      </c>
-      <c r="G35" t="s">
-        <v>421</v>
-      </c>
-      <c r="H35" t="s">
-        <v>198</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>209</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Club 850ml":1}</v>
-      </c>
-      <c r="G36" t="s">
-        <v>422</v>
-      </c>
-      <c r="H36" t="s">
-        <v>198</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37">
-        <v>2.5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" t="s">
-        <v>199</v>
-      </c>
-      <c r="F37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Club lata":1}</v>
-      </c>
-      <c r="G37" t="s">
-        <v>421</v>
-      </c>
-      <c r="H37" t="s">
-        <v>199</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" t="s">
-        <v>200</v>
-      </c>
-      <c r="F38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Corona 330ml":1}</v>
-      </c>
-      <c r="G38" t="s">
-        <v>421</v>
-      </c>
-      <c r="H38" t="s">
-        <v>200</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39">
-        <v>1.5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" t="s">
-        <v>201</v>
-      </c>
-      <c r="F39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Coronita 210ml":1}</v>
-      </c>
-      <c r="G39" t="s">
-        <v>421</v>
-      </c>
-      <c r="H39" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40">
-        <v>3.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Pilsener 1 Lt":1}</v>
-      </c>
-      <c r="G40" t="s">
-        <v>421</v>
-      </c>
-      <c r="H40" t="s">
-        <v>202</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>209</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41">
-        <v>3.8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"Pilsener 1 Lt":1}</v>
-      </c>
       <c r="G41" t="s">
-        <v>422</v>
-      </c>
-      <c r="H41" t="s">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2902,26 +2889,26 @@
         <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Siembra 1lt":1}</v>
+        <v>{"Club 330ml":1}</v>
       </c>
       <c r="G42" t="s">
         <v>421</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2932,26 +2919,26 @@
         <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Siembra 1lt":1}</v>
+        <v>{"Club 850ml":1}</v>
       </c>
       <c r="G43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2959,59 +2946,59 @@
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>22.75</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>367</v>
+        <v>204</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Espuela 750ml":1}</v>
+        <v>{"Club 850ml":1}</v>
       </c>
       <c r="G44" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H44" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>2.5</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>368</v>
+        <v>199</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Gran Malo 750ml":1}</v>
+        <v>{"Club lata":1}</v>
       </c>
       <c r="G45" t="s">
         <v>421</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -3019,29 +3006,29 @@
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>369</v>
+        <v>200</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca Silver 1000ml":1}</v>
+        <v>{"Corona 330ml":1}</v>
       </c>
       <c r="G46" t="s">
         <v>421</v>
       </c>
       <c r="H46" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -3049,29 +3036,29 @@
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="D47" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>370</v>
+        <v>201</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca Silver 750ml":1}</v>
+        <v>{"Coronita 210ml":1}</v>
       </c>
       <c r="G47" t="s">
         <v>421</v>
       </c>
       <c r="H47" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -3079,29 +3066,29 @@
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="D48" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E48" t="s">
-        <v>371</v>
+        <v>202</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Rancho 750ml":1}</v>
+        <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G48" t="s">
         <v>421</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -3109,29 +3096,29 @@
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>3.8</v>
       </c>
       <c r="D49" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E49" t="s">
-        <v>372</v>
+        <v>203</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Canijo Tamarindo":1}</v>
+        <v>{"Pilsener 1 Lt":1}</v>
       </c>
       <c r="G49" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H49" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -3139,29 +3126,29 @@
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="C50">
-        <v>21</v>
+        <v>2.75</v>
       </c>
       <c r="D50" t="s">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>373</v>
+        <v>205</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Smirnoff":1}</v>
+        <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G50" t="s">
         <v>421</v>
       </c>
       <c r="H50" t="s">
-        <v>362</v>
+        <v>205</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -3169,29 +3156,29 @@
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C51">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Azteca miniatura 50ml":1}</v>
+        <v>{"Siembra 1lt":1}</v>
       </c>
       <c r="G51" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H51" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -3199,59 +3186,59 @@
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C52">
-        <v>6.5</v>
+        <v>22.75</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>219</v>
+        <v>367</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Blue Berry":1}</v>
+        <v>{"Espuela 750ml":1}</v>
       </c>
       <c r="G52" t="s">
         <v>421</v>
       </c>
       <c r="H52" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C53">
-        <v>6.5</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Cannabis":1}</v>
+        <v>{"Gran Malo 750ml":1}</v>
       </c>
       <c r="G53" t="s">
         <v>421</v>
       </c>
       <c r="H53" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -3259,29 +3246,29 @@
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C54">
-        <v>6.5</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E54" t="s">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbadados Cotton Candy":1}</v>
+        <v>{"Azteca Silver 1000ml":1}</v>
       </c>
       <c r="G54" t="s">
         <v>421</v>
       </c>
       <c r="H54" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -3289,29 +3276,29 @@
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C55">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>370</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Mythological Drink":1}</v>
+        <v>{"Azteca Silver 750ml":1}</v>
       </c>
       <c r="G55" t="s">
         <v>421</v>
       </c>
       <c r="H55" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3319,29 +3306,29 @@
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Blue Berry":1}</v>
+        <v>{"Rancho 750ml":1}</v>
       </c>
       <c r="G56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -3349,29 +3336,29 @@
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>5.5</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Cannabis":1}</v>
+        <v>{"Canijo Tamarindo":1}</v>
       </c>
       <c r="G57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3379,29 +3366,29 @@
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="C58">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbadados Cotton Candy":1}</v>
+        <v>{"Smirnoff":1}</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H58" t="s">
-        <v>221</v>
+        <v>362</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -3409,29 +3396,29 @@
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C59">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Barbados Mythological Drink":1}</v>
+        <v>{"Azteca miniatura 50ml":1}</v>
       </c>
       <c r="G59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H59" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -3442,26 +3429,26 @@
         <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Vodka 40":1}</v>
+        <v>{"Barbados Blue Berry":1}</v>
       </c>
       <c r="G60" t="s">
         <v>421</v>
       </c>
       <c r="H60" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -3472,26 +3459,26 @@
         <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C61">
         <v>6.5</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Cartago Guarana":1}</v>
+        <v>{"Barbados Cannabis":1}</v>
       </c>
       <c r="G61" t="s">
         <v>421</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3499,29 +3486,29 @@
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C62">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="F62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Ron Abuelo":1}</v>
+        <v>{"Barbadados Cotton Candy":1}</v>
       </c>
       <c r="G62" t="s">
         <v>421</v>
       </c>
       <c r="H62" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3529,29 +3516,29 @@
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="D63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>374</v>
+        <v>222</v>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Antioqueño Tapa azul 750ml":1}</v>
+        <v>{"Barbados Mythological Drink":1}</v>
       </c>
       <c r="G63" t="s">
         <v>421</v>
       </c>
       <c r="H63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -3559,29 +3546,29 @@
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="D64" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E64" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Antioqueño Tapa azul 375ml":1}</v>
+        <v>{"Barbados Blue Berry":1}</v>
       </c>
       <c r="G64" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H64" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -3589,29 +3576,29 @@
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D65" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E65" t="s">
-        <v>376</v>
+        <v>260</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Zhumir Coco Tropical 700ml":1}</v>
+        <v>{"Barbados Cannabis":1}</v>
       </c>
       <c r="G65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H65" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -3619,29 +3606,29 @@
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
-        <v>377</v>
+        <v>261</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Zhumir Naranjilla 700ml":1}</v>
+        <v>{"Barbadados Cotton Candy":1}</v>
       </c>
       <c r="G66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H66" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -3649,29 +3636,29 @@
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>423</v>
+        <v>114</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>398</v>
+        <v>262</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"Zhumir Mango 700ml":1}</v>
+        <v>{"Barbados Mythological Drink":1}</v>
       </c>
       <c r="G67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H67" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3679,29 +3666,29 @@
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>378</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="str">
-        <f t="shared" ref="F68:F133" si="2" xml:space="preserve"> "{" &amp; """" &amp; H68 &amp; """" &amp; ":" &amp; I68 &amp; "}"</f>
-        <v>{"Zhumir Pink":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Vodka 40":1}</v>
       </c>
       <c r="G68" t="s">
         <v>421</v>
       </c>
       <c r="H68" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -3709,29 +3696,29 @@
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C69">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="D69" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="F69" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Zhumir Coco Tropical 700ml":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Cartago Guarana":1}</v>
       </c>
       <c r="G69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3739,29 +3726,29 @@
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C70">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="F70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Zhumir Naranjilla 700ml":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Ron Abuelo":1}</v>
       </c>
       <c r="G70" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H70" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3772,26 +3759,26 @@
         <v>223</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C71">
-        <v>5.5</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="F71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Zhumir Pink":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Antioqueño Tapa azul 750ml":1}</v>
       </c>
       <c r="G71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H71" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -3802,26 +3789,26 @@
         <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="C72">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s">
-        <v>424</v>
+        <v>225</v>
       </c>
       <c r="E72" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="F72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Zhumir Mango 700ml":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Antioqueño Tapa azul 375ml":1}</v>
       </c>
       <c r="G72" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H72" t="s">
-        <v>397</v>
+        <v>225</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -3832,26 +3819,26 @@
         <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E73" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Norteño 750ml":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Zhumir Coco Tropical 700ml":1}</v>
       </c>
       <c r="G73" t="s">
         <v>421</v>
       </c>
       <c r="H73" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -3862,26 +3849,26 @@
         <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C74">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Norteño Black 750 ml":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Zhumir Naranjilla 700ml":1}</v>
       </c>
       <c r="G74" t="s">
         <v>421</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -3892,26 +3879,26 @@
         <v>223</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>423</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>232</v>
+        <v>397</v>
       </c>
       <c r="E75" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Norteño Gold 750ml ":1}</v>
+        <f t="shared" si="0"/>
+        <v>{"Zhumir Mango 700ml":1}</v>
       </c>
       <c r="G75" t="s">
         <v>421</v>
       </c>
       <c r="H75" t="s">
-        <v>232</v>
+        <v>397</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3922,266 +3909,266 @@
         <v>223</v>
       </c>
       <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>228</v>
+      </c>
+      <c r="E76" t="s">
+        <v>378</v>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" ref="F76:F141" si="2" xml:space="preserve"> "{" &amp; """" &amp; H76 &amp; """" &amp; ":" &amp; I76 &amp; "}"</f>
+        <v>{"Zhumir Pink":1}</v>
+      </c>
+      <c r="G76" t="s">
+        <v>421</v>
+      </c>
+      <c r="H76" t="s">
+        <v>228</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>5.5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Coco Tropical 700ml":1}</v>
+      </c>
+      <c r="G77" t="s">
+        <v>422</v>
+      </c>
+      <c r="H77" t="s">
+        <v>226</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78">
+        <v>5.5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" t="s">
+        <v>264</v>
+      </c>
+      <c r="F78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Naranjilla 700ml":1}</v>
+      </c>
+      <c r="G78" t="s">
+        <v>422</v>
+      </c>
+      <c r="H78" t="s">
+        <v>227</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79">
+        <v>5.5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>228</v>
+      </c>
+      <c r="E79" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Pink":1}</v>
+      </c>
+      <c r="G79" t="s">
+        <v>422</v>
+      </c>
+      <c r="H79" t="s">
+        <v>228</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>425</v>
+      </c>
+      <c r="C80">
+        <v>5.5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" t="s">
+        <v>396</v>
+      </c>
+      <c r="F80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Zhumir Mango 700ml":1}</v>
+      </c>
+      <c r="G80" t="s">
+        <v>422</v>
+      </c>
+      <c r="H80" t="s">
+        <v>397</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" t="s">
+        <v>379</v>
+      </c>
+      <c r="F81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Norteño 750ml":1}</v>
+      </c>
+      <c r="G81" t="s">
+        <v>421</v>
+      </c>
+      <c r="H81" t="s">
+        <v>229</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" t="s">
+        <v>380</v>
+      </c>
+      <c r="F82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Norteño Black 750 ml":1}</v>
+      </c>
+      <c r="G82" t="s">
+        <v>421</v>
+      </c>
+      <c r="H82" t="s">
+        <v>231</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>223</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>232</v>
+      </c>
+      <c r="E83" t="s">
+        <v>381</v>
+      </c>
+      <c r="F83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Norteño Gold 750ml ":1}</v>
+      </c>
+      <c r="G83" t="s">
+        <v>421</v>
+      </c>
+      <c r="H83" t="s">
+        <v>232</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B84" t="s">
         <v>61</v>
       </c>
-      <c r="C76">
+      <c r="C84">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D84" t="s">
         <v>230</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E84" t="s">
         <v>382</v>
       </c>
-      <c r="F76" s="2" t="str">
+      <c r="F84" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"Norteño 375ml":1}</v>
       </c>
-      <c r="G76" t="s">
-        <v>421</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="G84" t="s">
+        <v>421</v>
+      </c>
+      <c r="H84" t="s">
         <v>230</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>233</v>
-      </c>
-      <c r="B77" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" t="s">
-        <v>236</v>
-      </c>
-      <c r="F77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Fraile 1500ml ":1}</v>
-      </c>
-      <c r="G77" t="s">
-        <v>421</v>
-      </c>
-      <c r="H77" t="s">
-        <v>236</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>233</v>
-      </c>
-      <c r="B78" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78">
-        <v>6.5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" t="s">
-        <v>234</v>
-      </c>
-      <c r="F78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Cavic Tinto 1000ml":1}</v>
-      </c>
-      <c r="G78" t="s">
-        <v>421</v>
-      </c>
-      <c r="H78" t="s">
-        <v>234</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>233</v>
-      </c>
-      <c r="B79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>235</v>
-      </c>
-      <c r="E79" t="s">
-        <v>235</v>
-      </c>
-      <c r="F79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Miraflores 750ml":1}</v>
-      </c>
-      <c r="G79" t="s">
-        <v>421</v>
-      </c>
-      <c r="H79" t="s">
-        <v>235</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>233</v>
-      </c>
-      <c r="B80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E80" t="s">
-        <v>237</v>
-      </c>
-      <c r="F80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Haciendazo 1500ml":1}</v>
-      </c>
-      <c r="G80" t="s">
-        <v>421</v>
-      </c>
-      <c r="H80" t="s">
-        <v>237</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" t="s">
-        <v>107</v>
-      </c>
-      <c r="C81">
-        <v>5.5</v>
-      </c>
-      <c r="D81" t="s">
-        <v>392</v>
-      </c>
-      <c r="E81" t="s">
-        <v>255</v>
-      </c>
-      <c r="F81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Fraile 1500ml ":1}</v>
-      </c>
-      <c r="G81" t="s">
-        <v>422</v>
-      </c>
-      <c r="H81" t="s">
-        <v>236</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>233</v>
-      </c>
-      <c r="B82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="D82" t="s">
-        <v>234</v>
-      </c>
-      <c r="E82" t="s">
-        <v>256</v>
-      </c>
-      <c r="F82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Cavic Tinto 1000ml":1}</v>
-      </c>
-      <c r="G82" t="s">
-        <v>422</v>
-      </c>
-      <c r="H82" t="s">
-        <v>234</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>233</v>
-      </c>
-      <c r="B83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83">
-        <v>5.75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>235</v>
-      </c>
-      <c r="E83" t="s">
-        <v>257</v>
-      </c>
-      <c r="F83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Miraflores 750ml":1}</v>
-      </c>
-      <c r="G83" t="s">
-        <v>422</v>
-      </c>
-      <c r="H83" t="s">
-        <v>235</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>233</v>
-      </c>
-      <c r="B84" t="s">
-        <v>110</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>237</v>
-      </c>
-      <c r="E84" t="s">
-        <v>258</v>
-      </c>
-      <c r="F84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Haciendazo 1500ml":1}</v>
-      </c>
-      <c r="G84" t="s">
-        <v>422</v>
-      </c>
-      <c r="H84" t="s">
-        <v>237</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4192,26 +4179,26 @@
         <v>233</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="E85" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Haciendazo 1500ml":1}</v>
+        <v>{"Fraile 1500ml ":1}</v>
       </c>
       <c r="G85" t="s">
         <v>421</v>
       </c>
       <c r="H85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -4219,29 +4206,29 @@
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
-        <v>383</v>
+        <v>234</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Old Times Black 745ml":1}</v>
+        <v>{"Cavic Tinto 1000ml":1}</v>
       </c>
       <c r="G86" t="s">
         <v>421</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -4249,29 +4236,29 @@
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C87">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E87" t="s">
-        <v>384</v>
+        <v>235</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Old Time Red 745cc":1}</v>
+        <v>{"Miraflores 750ml":1}</v>
       </c>
       <c r="G87" t="s">
         <v>421</v>
       </c>
       <c r="H87" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -4279,29 +4266,29 @@
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E88" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Johnnie Walker Red 750 ml ":1}</v>
+        <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G88" t="s">
         <v>421</v>
       </c>
       <c r="H88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -4309,29 +4296,29 @@
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="D89" t="s">
-        <v>241</v>
+        <v>392</v>
       </c>
       <c r="E89" t="s">
-        <v>386</v>
+        <v>255</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Old Times Miel 750ml":1}</v>
+        <v>{"Fraile 1500ml ":1}</v>
       </c>
       <c r="G89" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H89" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4339,29 +4326,29 @@
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E90" t="s">
-        <v>387</v>
+        <v>256</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Old Times Manzana 750ml":1}</v>
+        <v>{"Cavic Tinto 1000ml":1}</v>
       </c>
       <c r="G90" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H90" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -4369,29 +4356,29 @@
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C91">
-        <v>78</v>
+        <v>5.75</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="E91" t="s">
-        <v>388</v>
+        <v>257</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Buchanans":1}</v>
+        <v>{"Miraflores 750ml":1}</v>
       </c>
       <c r="G91" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H91" t="s">
-        <v>72</v>
+        <v>235</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -4399,29 +4386,29 @@
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C92">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>258</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Something Special":1}</v>
+        <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G92" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H92" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -4429,29 +4416,29 @@
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C93">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"John Morris Petit":1}</v>
+        <v>{"Haciendazo 1500ml":1}</v>
       </c>
       <c r="G93" t="s">
         <v>421</v>
       </c>
       <c r="H93" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -4459,29 +4446,29 @@
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C94">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Gluksmaister litro":1}</v>
+        <v>{"Old Times Black 745ml":1}</v>
       </c>
       <c r="G94" t="s">
         <v>421</v>
       </c>
       <c r="H94" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -4489,29 +4476,29 @@
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C95">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E95" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Jagermaister 1L":1}</v>
+        <v>{"Old Time Red 745cc":1}</v>
       </c>
       <c r="G95" t="s">
         <v>421</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -4519,29 +4506,29 @@
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E96" t="s">
-        <v>247</v>
+        <v>385</v>
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Jagermeister Miniatura":1}</v>
+        <v>{"Johnnie Walker Red 750 ml ":1}</v>
       </c>
       <c r="G96" t="s">
         <v>421</v>
       </c>
       <c r="H96" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -4549,29 +4536,29 @@
     </row>
     <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B97" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C97">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="E97" t="s">
-        <v>275</v>
+        <v>386</v>
       </c>
       <c r="F97" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Four Loko Blue ":1}</v>
+        <v>{"Old Times Miel 750ml":1}</v>
       </c>
       <c r="G97" t="s">
         <v>421</v>
       </c>
       <c r="H97" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4579,29 +4566,29 @@
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C98">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="E98" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Four loko Gold ":1}</v>
+        <v>{"Old Times Manzana 750ml":1}</v>
       </c>
       <c r="G98" t="s">
         <v>421</v>
       </c>
       <c r="H98" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -4609,29 +4596,29 @@
     </row>
     <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C99">
-        <v>5.5</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>388</v>
       </c>
       <c r="F99" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Four Loko Red":1}</v>
+        <v>{"Buchanans":1}</v>
       </c>
       <c r="G99" t="s">
         <v>421</v>
       </c>
       <c r="H99" t="s">
-        <v>277</v>
+        <v>72</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -4639,29 +4626,29 @@
     </row>
     <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C100">
-        <v>5.5</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Four Loko Withe":1}</v>
+        <v>{"Something Special":1}</v>
       </c>
       <c r="G100" t="s">
         <v>421</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -4669,29 +4656,29 @@
     </row>
     <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="F101" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Jelly Four loko":1}</v>
+        <v>{"John Morris Petit":1}</v>
       </c>
       <c r="G101" t="s">
         <v>421</v>
       </c>
       <c r="H101" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4699,29 +4686,29 @@
     </row>
     <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C102">
-        <v>0.25</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Gelatina Switch":1}</v>
+        <v>{"Gluksmaister litro":1}</v>
       </c>
       <c r="G102" t="s">
         <v>421</v>
       </c>
       <c r="H102" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4729,29 +4716,29 @@
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C103">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="D103" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="F103" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Bongo Bongo":1}</v>
+        <v>{"Jagermaister 1L":1}</v>
       </c>
       <c r="G103" t="s">
         <v>421</v>
       </c>
       <c r="H103" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4759,29 +4746,29 @@
     </row>
     <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C104">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="E104" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F104" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Daiquiri":1}</v>
+        <v>{"Jagermeister Miniatura":1}</v>
       </c>
       <c r="G104" t="s">
         <v>421</v>
       </c>
       <c r="H104" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -4789,29 +4776,29 @@
     </row>
     <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C105">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D105" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E105" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F105" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Harta Demencia":1}</v>
+        <v>{"Four Loko Blue ":1}</v>
       </c>
       <c r="G105" t="s">
         <v>421</v>
       </c>
       <c r="H105" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -4819,29 +4806,29 @@
     </row>
     <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C106">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F106" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Maracuya":1}</v>
+        <v>{"Four loko Gold ":1}</v>
       </c>
       <c r="G106" t="s">
         <v>421</v>
       </c>
       <c r="H106" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4849,29 +4836,29 @@
     </row>
     <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C107">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Tamarindo":1}</v>
+        <v>{"Four Loko Red":1}</v>
       </c>
       <c r="G107" t="s">
         <v>421</v>
       </c>
       <c r="H107" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -4879,29 +4866,29 @@
     </row>
     <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D108" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E108" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F108" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Bongo Bongo":1}</v>
+        <v>{"Four Loko Withe":1}</v>
       </c>
       <c r="G108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H108" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -4909,29 +4896,29 @@
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E109" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F109" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Daiquiri":1}</v>
+        <v>{"Jelly Four loko":1}</v>
       </c>
       <c r="G109" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H109" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -4942,26 +4929,26 @@
         <v>251</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="D110" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E110" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F110" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Harta Demencia":1}</v>
+        <v>{"Gelatina Switch":1}</v>
       </c>
       <c r="G110" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H110" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -4972,26 +4959,26 @@
         <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D111" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E111" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F111" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Maracuya":1}</v>
+        <v>{"Switch Bongo Bongo":1}</v>
       </c>
       <c r="G111" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H111" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5002,26 +4989,26 @@
         <v>251</v>
       </c>
       <c r="B112" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="D112" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F112" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Switch Tamarindo":1}</v>
+        <v>{"Switch Daiquiri":1}</v>
       </c>
       <c r="G112" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H112" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5029,29 +5016,29 @@
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C113">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="E113" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="F113" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"RTD":1}</v>
+        <v>{"Switch Harta Demencia":1}</v>
       </c>
       <c r="G113" t="s">
         <v>421</v>
       </c>
       <c r="H113" t="s">
-        <v>90</v>
+        <v>283</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -5059,29 +5046,29 @@
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C114">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="E114" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F114" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"RTD":1}</v>
+        <v>{"Switch Maracuya":1}</v>
       </c>
       <c r="G114" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H114" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5089,29 +5076,29 @@
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C115">
         <v>4.5</v>
       </c>
       <c r="D115" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E115" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F115" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata Berrylicious":1}</v>
+        <v>{"Switch Tamarindo":1}</v>
       </c>
       <c r="G115" t="s">
         <v>421</v>
       </c>
       <c r="H115" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5119,29 +5106,29 @@
     </row>
     <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C116">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E116" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F116" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata Guarana":1}</v>
+        <v>{"Switch Bongo Bongo":1}</v>
       </c>
       <c r="G116" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H116" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5149,29 +5136,29 @@
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C117">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D117" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F117" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata Piña Paradice":1}</v>
+        <v>{"Switch Daiquiri":1}</v>
       </c>
       <c r="G117" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H117" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5179,31 +5166,29 @@
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B118" t="s">
-        <v>426</v>
+        <v>117</v>
       </c>
       <c r="C118">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D118" t="s">
-        <v>428</v>
-      </c>
-      <c r="E118" t="str">
-        <f>D118</f>
-        <v>Cubata mango</v>
+        <v>283</v>
+      </c>
+      <c r="E118" t="s">
+        <v>288</v>
       </c>
       <c r="F118" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata mango":1}</v>
+        <v>{"Switch Harta Demencia":1}</v>
       </c>
       <c r="G118" t="s">
-        <v>421</v>
-      </c>
-      <c r="H118" t="str">
-        <f>D118</f>
-        <v>Cubata mango</v>
+        <v>422</v>
+      </c>
+      <c r="H118" t="s">
+        <v>283</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -5211,31 +5196,29 @@
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B119" t="s">
-        <v>427</v>
+        <v>118</v>
       </c>
       <c r="C119">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>429</v>
-      </c>
-      <c r="E119" t="str">
-        <f>D119</f>
-        <v>Cubata maracuya</v>
+        <v>284</v>
+      </c>
+      <c r="E119" t="s">
+        <v>289</v>
       </c>
       <c r="F119" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata maracuya":1}</v>
+        <v>{"Switch Maracuya":1}</v>
       </c>
       <c r="G119" t="s">
-        <v>421</v>
-      </c>
-      <c r="H119" t="str">
-        <f>D119</f>
-        <v>Cubata maracuya</v>
+        <v>422</v>
+      </c>
+      <c r="H119" t="s">
+        <v>284</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -5243,29 +5226,29 @@
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E120" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F120" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata Berrylicious":1}</v>
+        <v>{"Switch Tamarindo":1}</v>
       </c>
       <c r="G120" t="s">
         <v>422</v>
       </c>
       <c r="H120" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5273,29 +5256,29 @@
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="D121" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>90</v>
       </c>
       <c r="F121" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata Guarana":1}</v>
+        <v>{"RTD":1}</v>
       </c>
       <c r="G121" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H121" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5303,29 +5286,29 @@
     </row>
     <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D122" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="E122" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F122" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Cubata Piña Paradice":1}</v>
+        <v>{"RTD":1}</v>
       </c>
       <c r="G122" t="s">
         <v>422</v>
       </c>
       <c r="H122" t="s">
-        <v>294</v>
+        <v>90</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5333,26 +5316,29 @@
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>91</v>
       </c>
       <c r="C123">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="D123" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="E123" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="F123" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"":1}</v>
+        <v>{"Cubata Berrylicious":1}</v>
       </c>
       <c r="G123" t="s">
         <v>421</v>
+      </c>
+      <c r="H123" t="s">
+        <v>292</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -5360,26 +5346,29 @@
     </row>
     <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>92</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="D124" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="E124" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="F124" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"":1}</v>
+        <v>{"Cubata Guarana":1}</v>
       </c>
       <c r="G124" t="s">
         <v>421</v>
+      </c>
+      <c r="H124" t="s">
+        <v>293</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5387,27 +5376,29 @@
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B125" t="s">
-        <v>356</v>
+        <v>93</v>
       </c>
       <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125" t="str">
-        <f>B125</f>
-        <v>Canelazo amazonico 500</v>
+        <v>4.5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>294</v>
       </c>
       <c r="E125" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="F125" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"":1}</v>
+        <v>{"Cubata Piña Paradice":1}</v>
       </c>
       <c r="G125" t="s">
         <v>421</v>
+      </c>
+      <c r="H125" t="s">
+        <v>294</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5415,27 +5406,31 @@
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="B126" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="C126">
-        <v>3.5</v>
-      </c>
-      <c r="D126" t="str">
-        <f>B126</f>
-        <v>Canelazo frutos rojos 500</v>
-      </c>
-      <c r="E126" t="s">
-        <v>357</v>
+        <v>4.5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>428</v>
+      </c>
+      <c r="E126" t="str">
+        <f>D126</f>
+        <v>Cubata mango</v>
       </c>
       <c r="F126" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"":1}</v>
+        <v>{"Cubata mango":1}</v>
       </c>
       <c r="G126" t="s">
         <v>421</v>
+      </c>
+      <c r="H126" t="str">
+        <f>D126</f>
+        <v>Cubata mango</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -5443,31 +5438,31 @@
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" t="s">
-        <v>94</v>
+        <v>427</v>
       </c>
       <c r="C127">
-        <v>3.5</v>
-      </c>
-      <c r="D127" t="str">
-        <f>B127</f>
-        <v>Monster</v>
-      </c>
-      <c r="E127" t="s">
-        <v>94</v>
+        <v>4.5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>429</v>
+      </c>
+      <c r="E127" t="str">
+        <f>D127</f>
+        <v>Cubata maracuya</v>
       </c>
       <c r="F127" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Monster":1}</v>
+        <v>{"Cubata maracuya":1}</v>
       </c>
       <c r="G127" t="s">
         <v>421</v>
       </c>
       <c r="H127" t="str">
-        <f>E127</f>
-        <v>Monster</v>
+        <f>D127</f>
+        <v>Cubata maracuya</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5475,31 +5470,29 @@
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
-      <c r="D128" t="str">
-        <f t="shared" ref="D128:D163" si="3">B128</f>
-        <v>Redbull</v>
+      <c r="D128" t="s">
+        <v>292</v>
       </c>
       <c r="E128" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="F128" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Redbull":1}</v>
+        <v>{"Cubata Berrylicious":1}</v>
       </c>
       <c r="G128" t="s">
-        <v>421</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" ref="H128:H139" si="4">E128</f>
-        <v>Redbull</v>
+        <v>422</v>
+      </c>
+      <c r="H128" t="s">
+        <v>292</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5507,31 +5500,29 @@
     </row>
     <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B129" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="C129">
-        <v>1.5</v>
-      </c>
-      <c r="D129" t="str">
-        <f t="shared" si="3"/>
-        <v>Gatorade G</v>
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>293</v>
       </c>
       <c r="E129" t="s">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="F129" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Gatorade G":1}</v>
+        <v>{"Cubata Guarana":1}</v>
       </c>
       <c r="G129" t="s">
-        <v>421</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="4"/>
-        <v>Gatorade G</v>
+        <v>422</v>
+      </c>
+      <c r="H129" t="s">
+        <v>293</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5539,161 +5530,31 @@
     </row>
     <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B130" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="str">
-        <f t="shared" si="3"/>
-        <v>Gatorade P</v>
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>294</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="F130" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"Gatorade P":1}</v>
+        <v>{"Cubata Piña Paradice":1}</v>
       </c>
       <c r="G130" t="s">
-        <v>421</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="4"/>
-        <v>Gatorade P</v>
+        <v>422</v>
+      </c>
+      <c r="H130" t="s">
+        <v>294</v>
       </c>
       <c r="I130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>253</v>
-      </c>
-      <c r="B131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131">
-        <v>1.5</v>
-      </c>
-      <c r="D131" t="str">
-        <f t="shared" si="3"/>
-        <v>Vive 100</v>
-      </c>
-      <c r="E131" t="s">
-        <v>98</v>
-      </c>
-      <c r="F131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Vive 100":1}</v>
-      </c>
-      <c r="G131" t="s">
-        <v>421</v>
-      </c>
-      <c r="H131" t="str">
-        <f t="shared" si="4"/>
-        <v>Vive 100</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>253</v>
-      </c>
-      <c r="B132" t="s">
-        <v>99</v>
-      </c>
-      <c r="C132">
-        <v>1.25</v>
-      </c>
-      <c r="D132" t="str">
-        <f t="shared" si="3"/>
-        <v>Agua G</v>
-      </c>
-      <c r="E132" t="s">
-        <v>99</v>
-      </c>
-      <c r="F132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Agua G":1}</v>
-      </c>
-      <c r="G132" t="s">
-        <v>421</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="4"/>
-        <v>Agua G</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>253</v>
-      </c>
-      <c r="B133" t="s">
-        <v>100</v>
-      </c>
-      <c r="C133">
-        <v>0.75</v>
-      </c>
-      <c r="D133" t="str">
-        <f t="shared" si="3"/>
-        <v>Agua P</v>
-      </c>
-      <c r="E133" t="s">
-        <v>100</v>
-      </c>
-      <c r="F133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"Agua P":1}</v>
-      </c>
-      <c r="G133" t="s">
-        <v>421</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="4"/>
-        <v>Agua P</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>253</v>
-      </c>
-      <c r="B134" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134">
-        <v>1.75</v>
-      </c>
-      <c r="D134" t="str">
-        <f t="shared" si="3"/>
-        <v>Sprite 1</v>
-      </c>
-      <c r="E134" t="s">
-        <v>101</v>
-      </c>
-      <c r="F134" s="2" t="str">
-        <f t="shared" ref="F134:F194" si="5" xml:space="preserve"> "{" &amp; """" &amp; H134 &amp; """" &amp; ":" &amp; I134 &amp; "}"</f>
-        <v>{"Sprite 1":1}</v>
-      </c>
-      <c r="G134" t="s">
-        <v>421</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="4"/>
-        <v>Sprite 1</v>
-      </c>
-      <c r="I134">
         <v>1</v>
       </c>
     </row>
@@ -5702,28 +5563,28 @@
         <v>253</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C135">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="3"/>
-        <v>Coca Cola 1</v>
+        <f>B135</f>
+        <v>Monster</v>
       </c>
       <c r="E135" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F135" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"Coca Cola 1":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Monster":1}</v>
       </c>
       <c r="G135" t="s">
         <v>421</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="4"/>
-        <v>Coca Cola 1</v>
+        <f>E135</f>
+        <v>Monster</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -5734,28 +5595,28 @@
         <v>253</v>
       </c>
       <c r="B136" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C136">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="3"/>
-        <v>Coca Cola 1,5</v>
+        <f t="shared" ref="D136:D171" si="3">B136</f>
+        <v>Redbull</v>
       </c>
       <c r="E136" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F136" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"Coca Cola 1,5":1}</v>
+        <f t="shared" si="2"/>
+        <v>{"Redbull":1}</v>
       </c>
       <c r="G136" t="s">
         <v>421</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="4"/>
-        <v>Coca Cola 1,5</v>
+        <f t="shared" ref="H136:H147" si="4">E136</f>
+        <v>Redbull</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -5766,337 +5627,369 @@
         <v>253</v>
       </c>
       <c r="B137" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C137">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="3"/>
+        <v>Gatorade G</v>
+      </c>
+      <c r="E137" t="s">
+        <v>96</v>
+      </c>
+      <c r="F137" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Gatorade G":1}</v>
+      </c>
+      <c r="G137" t="s">
+        <v>421</v>
+      </c>
+      <c r="H137" t="str">
+        <f t="shared" si="4"/>
+        <v>Gatorade G</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" t="s">
+        <v>97</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="3"/>
+        <v>Gatorade P</v>
+      </c>
+      <c r="E138" t="s">
+        <v>97</v>
+      </c>
+      <c r="F138" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Gatorade P":1}</v>
+      </c>
+      <c r="G138" t="s">
+        <v>421</v>
+      </c>
+      <c r="H138" t="str">
+        <f t="shared" si="4"/>
+        <v>Gatorade P</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" t="s">
+        <v>98</v>
+      </c>
+      <c r="C139">
+        <v>1.5</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="3"/>
+        <v>Vive 100</v>
+      </c>
+      <c r="E139" t="s">
+        <v>98</v>
+      </c>
+      <c r="F139" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Vive 100":1}</v>
+      </c>
+      <c r="G139" t="s">
+        <v>421</v>
+      </c>
+      <c r="H139" t="str">
+        <f t="shared" si="4"/>
+        <v>Vive 100</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140">
+        <v>1.25</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="3"/>
+        <v>Agua G</v>
+      </c>
+      <c r="E140" t="s">
+        <v>99</v>
+      </c>
+      <c r="F140" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Agua G":1}</v>
+      </c>
+      <c r="G140" t="s">
+        <v>421</v>
+      </c>
+      <c r="H140" t="str">
+        <f t="shared" si="4"/>
+        <v>Agua G</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>253</v>
+      </c>
+      <c r="B141" t="s">
+        <v>100</v>
+      </c>
+      <c r="C141">
+        <v>0.75</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="3"/>
+        <v>Agua P</v>
+      </c>
+      <c r="E141" t="s">
+        <v>100</v>
+      </c>
+      <c r="F141" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>{"Agua P":1}</v>
+      </c>
+      <c r="G141" t="s">
+        <v>421</v>
+      </c>
+      <c r="H141" t="str">
+        <f t="shared" si="4"/>
+        <v>Agua P</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" t="s">
+        <v>101</v>
+      </c>
+      <c r="C142">
+        <v>1.75</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="3"/>
+        <v>Sprite 1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="2" t="str">
+        <f t="shared" ref="F142:F198" si="5" xml:space="preserve"> "{" &amp; """" &amp; H142 &amp; """" &amp; ":" &amp; I142 &amp; "}"</f>
+        <v>{"Sprite 1":1}</v>
+      </c>
+      <c r="G142" t="s">
+        <v>421</v>
+      </c>
+      <c r="H142" t="str">
+        <f t="shared" si="4"/>
+        <v>Sprite 1</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" t="s">
+        <v>102</v>
+      </c>
+      <c r="C143">
+        <v>1.75</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="3"/>
+        <v>Coca Cola 1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>102</v>
+      </c>
+      <c r="F143" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Coca Cola 1":1}</v>
+      </c>
+      <c r="G143" t="s">
+        <v>421</v>
+      </c>
+      <c r="H143" t="str">
+        <f t="shared" si="4"/>
+        <v>Coca Cola 1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>253</v>
+      </c>
+      <c r="B144" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144">
+        <v>2.5</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="3"/>
+        <v>Coca Cola 1,5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>103</v>
+      </c>
+      <c r="F144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Coca Cola 1,5":1}</v>
+      </c>
+      <c r="G144" t="s">
+        <v>421</v>
+      </c>
+      <c r="H144" t="str">
+        <f t="shared" si="4"/>
+        <v>Coca Cola 1,5</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>253</v>
+      </c>
+      <c r="B145" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145">
+        <v>0.75</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="3"/>
         <v>Cifrut</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E145" t="s">
         <v>104</v>
       </c>
-      <c r="F137" s="2" t="str">
+      <c r="F145" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Cifrut":1}</v>
       </c>
-      <c r="G137" t="s">
-        <v>421</v>
-      </c>
-      <c r="H137" t="str">
+      <c r="G145" t="s">
+        <v>421</v>
+      </c>
+      <c r="H145" t="str">
         <f t="shared" si="4"/>
         <v>Cifrut</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>254</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B146" t="s">
         <v>105</v>
       </c>
-      <c r="C138">
+      <c r="C146">
         <v>0.5</v>
       </c>
-      <c r="D138" t="str">
+      <c r="D146" t="str">
         <f t="shared" si="3"/>
         <v>Lark</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E146" t="s">
         <v>105</v>
       </c>
-      <c r="F138" s="2" t="str">
+      <c r="F146" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Lark":1}</v>
       </c>
-      <c r="G138" t="s">
-        <v>421</v>
-      </c>
-      <c r="H138" t="str">
+      <c r="G146" t="s">
+        <v>421</v>
+      </c>
+      <c r="H146" t="str">
         <f t="shared" si="4"/>
         <v>Lark</v>
       </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>254</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B147" t="s">
         <v>106</v>
       </c>
-      <c r="C139">
+      <c r="C147">
         <v>0.5</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D147" t="str">
         <f t="shared" si="3"/>
         <v>Marlboro</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E147" t="s">
         <v>106</v>
       </c>
-      <c r="F139" s="2" t="str">
+      <c r="F147" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Marlboro":1}</v>
       </c>
-      <c r="G139" t="s">
-        <v>421</v>
-      </c>
-      <c r="H139" t="str">
+      <c r="G147" t="s">
+        <v>421</v>
+      </c>
+      <c r="H147" t="str">
         <f t="shared" si="4"/>
         <v>Marlboro</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>254</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B148" t="s">
         <v>144</v>
       </c>
-      <c r="C140">
+      <c r="C148">
         <v>4.5</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D148" t="str">
         <f t="shared" si="3"/>
         <v>Media Lark</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E148" t="s">
         <v>144</v>
-      </c>
-      <c r="F140" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G140" t="s">
-        <v>421</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>254</v>
-      </c>
-      <c r="B141" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141">
-        <v>4.5</v>
-      </c>
-      <c r="D141" t="str">
-        <f t="shared" si="3"/>
-        <v>Media Marlboro</v>
-      </c>
-      <c r="E141" t="s">
-        <v>145</v>
-      </c>
-      <c r="F141" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G141" t="s">
-        <v>421</v>
-      </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>266</v>
-      </c>
-      <c r="B142" t="s">
-        <v>127</v>
-      </c>
-      <c r="C142">
-        <v>2.5</v>
-      </c>
-      <c r="D142" t="str">
-        <f t="shared" si="3"/>
-        <v>Picadita de Carne</v>
-      </c>
-      <c r="E142" t="s">
-        <v>127</v>
-      </c>
-      <c r="F142" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G142" t="s">
-        <v>421</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>266</v>
-      </c>
-      <c r="B143" t="s">
-        <v>128</v>
-      </c>
-      <c r="C143">
-        <v>2.5</v>
-      </c>
-      <c r="D143" t="str">
-        <f t="shared" si="3"/>
-        <v>Picadita de Pollo</v>
-      </c>
-      <c r="E143" t="s">
-        <v>128</v>
-      </c>
-      <c r="F143" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G143" t="s">
-        <v>421</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" t="s">
-        <v>129</v>
-      </c>
-      <c r="C144">
-        <v>2.5</v>
-      </c>
-      <c r="D144" t="str">
-        <f t="shared" si="3"/>
-        <v>Doriloco de Carne</v>
-      </c>
-      <c r="E144" t="s">
-        <v>129</v>
-      </c>
-      <c r="F144" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G144" t="s">
-        <v>421</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>266</v>
-      </c>
-      <c r="B145" t="s">
-        <v>130</v>
-      </c>
-      <c r="C145">
-        <v>2.5</v>
-      </c>
-      <c r="D145" t="str">
-        <f t="shared" si="3"/>
-        <v>Doriloco de Pollo</v>
-      </c>
-      <c r="E145" t="s">
-        <v>130</v>
-      </c>
-      <c r="F145" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G145" t="s">
-        <v>421</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>266</v>
-      </c>
-      <c r="B146" t="s">
-        <v>131</v>
-      </c>
-      <c r="C146">
-        <v>0.5</v>
-      </c>
-      <c r="D146" t="str">
-        <f>B146</f>
-        <v>Hielos</v>
-      </c>
-      <c r="E146" t="s">
-        <v>131</v>
-      </c>
-      <c r="F146" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G146" t="s">
-        <v>421</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>266</v>
-      </c>
-      <c r="B147" t="s">
-        <v>132</v>
-      </c>
-      <c r="C147">
-        <v>0.5</v>
-      </c>
-      <c r="D147" t="str">
-        <f t="shared" si="3"/>
-        <v>Limon</v>
-      </c>
-      <c r="E147" t="s">
-        <v>132</v>
-      </c>
-      <c r="F147" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G147" t="s">
-        <v>421</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>266</v>
-      </c>
-      <c r="B148" t="s">
-        <v>133</v>
-      </c>
-      <c r="C148">
-        <v>2</v>
-      </c>
-      <c r="D148" t="str">
-        <f t="shared" si="3"/>
-        <v>Chamoyada</v>
-      </c>
-      <c r="E148" t="s">
-        <v>133</v>
       </c>
       <c r="F148" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6111,20 +6004,20 @@
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="3"/>
-        <v>Canguil</v>
+        <v>Media Marlboro</v>
       </c>
       <c r="E149" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F149" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6139,20 +6032,20 @@
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C150">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="3"/>
-        <v>Shot de Tequila</v>
+        <v>Picadita de Carne</v>
       </c>
       <c r="E150" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F150" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6167,20 +6060,20 @@
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="C151">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="3"/>
-        <v>Shot de Whisky</v>
+        <v>Picadita de Pollo</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="F151" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6195,20 +6088,20 @@
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="C152">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="3"/>
-        <v>Shot de Hierbas</v>
+        <v>Doriloco de Carne</v>
       </c>
       <c r="E152" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="F152" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6223,20 +6116,20 @@
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B153" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C153">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D153" t="str">
-        <f>B153</f>
-        <v>Shot de Vodka</v>
+        <f t="shared" si="3"/>
+        <v>Doriloco de Pollo</v>
       </c>
       <c r="E153" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F153" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6251,20 +6144,20 @@
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B154" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="C154">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="3"/>
-        <v>Shot Canelazo</v>
+        <f>B154</f>
+        <v>Hielos</v>
       </c>
       <c r="E154" t="s">
-        <v>268</v>
+        <v>131</v>
       </c>
       <c r="F154" s="2" t="str">
         <f t="shared" si="5"/>
@@ -6279,29 +6172,27 @@
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B155" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C155">
-        <v>1.5</v>
-      </c>
-      <c r="D155" t="s">
-        <v>298</v>
+        <v>0.5</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="3"/>
+        <v>Limon</v>
       </c>
       <c r="E155" t="s">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="F155" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"V220 grande":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G155" t="s">
         <v>421</v>
-      </c>
-      <c r="H155" t="s">
-        <v>298</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6309,29 +6200,27 @@
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>299</v>
+        <v>2</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="3"/>
+        <v>Chamoyada</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="F156" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"V220 pequeño":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G156" t="s">
         <v>421</v>
-      </c>
-      <c r="H156" t="s">
-        <v>299</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6339,31 +6228,27 @@
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B157" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C157">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="3"/>
-        <v>Menta</v>
+        <v>Canguil</v>
       </c>
       <c r="E157" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F157" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Menta":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G157" t="s">
         <v>421</v>
-      </c>
-      <c r="H157" t="str">
-        <f t="shared" ref="H157:H163" si="6">E157</f>
-        <v>Menta</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6371,418 +6256,426 @@
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C158">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="3"/>
-        <v>Trident</v>
+        <v>Shot de Tequila</v>
       </c>
       <c r="E158" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F158" s="2" t="str">
         <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G158" t="s">
+        <v>421</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159" t="s">
+        <v>269</v>
+      </c>
+      <c r="C159">
+        <v>1.5</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="3"/>
+        <v>Shot de Whisky</v>
+      </c>
+      <c r="E159" t="s">
+        <v>269</v>
+      </c>
+      <c r="F159" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G159" t="s">
+        <v>421</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160">
+        <v>1.5</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="3"/>
+        <v>Shot de Hierbas</v>
+      </c>
+      <c r="E160" t="s">
+        <v>270</v>
+      </c>
+      <c r="F160" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G160" t="s">
+        <v>421</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161">
+        <v>1.5</v>
+      </c>
+      <c r="D161" t="str">
+        <f>B161</f>
+        <v>Shot de Vodka</v>
+      </c>
+      <c r="E161" t="s">
+        <v>136</v>
+      </c>
+      <c r="F161" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G161" t="s">
+        <v>421</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>267</v>
+      </c>
+      <c r="B162" t="s">
+        <v>268</v>
+      </c>
+      <c r="C162">
+        <v>0.75</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="3"/>
+        <v>Shot Canelazo</v>
+      </c>
+      <c r="E162" t="s">
+        <v>268</v>
+      </c>
+      <c r="F162" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"":1}</v>
+      </c>
+      <c r="G162" t="s">
+        <v>421</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>253</v>
+      </c>
+      <c r="B163" t="s">
+        <v>137</v>
+      </c>
+      <c r="C163">
+        <v>1.5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>298</v>
+      </c>
+      <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="F163" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"V220 grande":1}</v>
+      </c>
+      <c r="G163" t="s">
+        <v>421</v>
+      </c>
+      <c r="H163" t="s">
+        <v>298</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>253</v>
+      </c>
+      <c r="B164" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>299</v>
+      </c>
+      <c r="E164" t="s">
+        <v>299</v>
+      </c>
+      <c r="F164" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"V220 pequeño":1}</v>
+      </c>
+      <c r="G164" t="s">
+        <v>421</v>
+      </c>
+      <c r="H164" t="s">
+        <v>299</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>271</v>
+      </c>
+      <c r="B165" t="s">
+        <v>139</v>
+      </c>
+      <c r="C165">
+        <v>0.1</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="3"/>
+        <v>Menta</v>
+      </c>
+      <c r="E165" t="s">
+        <v>139</v>
+      </c>
+      <c r="F165" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Menta":1}</v>
+      </c>
+      <c r="G165" t="s">
+        <v>421</v>
+      </c>
+      <c r="H165" t="str">
+        <f t="shared" ref="H165:H171" si="6">E165</f>
+        <v>Menta</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>271</v>
+      </c>
+      <c r="B166" t="s">
+        <v>140</v>
+      </c>
+      <c r="C166">
+        <v>0.15</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="3"/>
+        <v>Trident</v>
+      </c>
+      <c r="E166" t="s">
+        <v>140</v>
+      </c>
+      <c r="F166" s="2" t="str">
+        <f t="shared" si="5"/>
         <v>{"Trident":1}</v>
       </c>
-      <c r="G158" t="s">
-        <v>421</v>
-      </c>
-      <c r="H158" t="str">
+      <c r="G166" t="s">
+        <v>421</v>
+      </c>
+      <c r="H166" t="str">
         <f t="shared" si="6"/>
         <v>Trident</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="I166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>271</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B167" t="s">
         <v>141</v>
       </c>
-      <c r="C159">
+      <c r="C167">
         <v>0.75</v>
       </c>
-      <c r="D159" t="str">
+      <c r="D167" t="str">
         <f t="shared" si="3"/>
         <v>Trident Pack</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E167" t="s">
         <v>141</v>
       </c>
-      <c r="F159" s="2" t="str">
+      <c r="F167" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Trident Pack":1}</v>
       </c>
-      <c r="G159" t="s">
-        <v>421</v>
-      </c>
-      <c r="H159" t="str">
+      <c r="G167" t="s">
+        <v>421</v>
+      </c>
+      <c r="H167" t="str">
         <f t="shared" si="6"/>
         <v>Trident Pack</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="I167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>271</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B168" t="s">
         <v>143</v>
       </c>
-      <c r="C160">
+      <c r="C168">
         <v>0.25</v>
       </c>
-      <c r="D160" t="str">
+      <c r="D168" t="str">
         <f t="shared" si="3"/>
         <v>Chupete</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E168" t="s">
         <v>143</v>
       </c>
-      <c r="F160" s="2" t="str">
+      <c r="F168" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Chupete":1}</v>
       </c>
-      <c r="G160" t="s">
-        <v>421</v>
-      </c>
-      <c r="H160" t="str">
+      <c r="G168" t="s">
+        <v>421</v>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" si="6"/>
         <v>Chupete</v>
       </c>
-      <c r="I160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="I168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>253</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B169" t="s">
         <v>146</v>
       </c>
-      <c r="C161">
+      <c r="C169">
         <v>1.75</v>
       </c>
-      <c r="D161" t="str">
+      <c r="D169" t="str">
         <f t="shared" si="3"/>
         <v>Guitig</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E169" t="s">
         <v>146</v>
       </c>
-      <c r="F161" s="2" t="str">
+      <c r="F169" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Guitig":1}</v>
       </c>
-      <c r="G161" t="s">
-        <v>421</v>
-      </c>
-      <c r="H161" t="str">
+      <c r="G169" t="s">
+        <v>421</v>
+      </c>
+      <c r="H169" t="str">
         <f t="shared" si="6"/>
         <v>Guitig</v>
       </c>
-      <c r="I161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="I169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>250</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B170" t="s">
         <v>149</v>
       </c>
-      <c r="C162">
+      <c r="C170">
         <v>6</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D170" t="str">
         <f t="shared" si="3"/>
         <v>Coco Loko</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E170" t="s">
         <v>149</v>
       </c>
-      <c r="F162" s="2" t="str">
+      <c r="F170" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Coco Loko":1}</v>
       </c>
-      <c r="G162" t="s">
-        <v>421</v>
-      </c>
-      <c r="H162" t="str">
+      <c r="G170" t="s">
+        <v>421</v>
+      </c>
+      <c r="H170" t="str">
         <f t="shared" si="6"/>
         <v>Coco Loko</v>
       </c>
-      <c r="I162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="I170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>271</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B171" t="s">
         <v>150</v>
       </c>
-      <c r="C163">
+      <c r="C171">
         <v>0.75</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D171" t="str">
         <f t="shared" si="3"/>
         <v>Manicho</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E171" t="s">
         <v>150</v>
       </c>
-      <c r="F163" s="2" t="str">
+      <c r="F171" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"Manicho":1}</v>
       </c>
-      <c r="G163" t="s">
-        <v>421</v>
-      </c>
-      <c r="H163" t="str">
+      <c r="G171" t="s">
+        <v>421</v>
+      </c>
+      <c r="H171" t="str">
         <f t="shared" si="6"/>
         <v>Manicho</v>
       </c>
-      <c r="I163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>273</v>
-      </c>
-      <c r="B164" t="s">
-        <v>151</v>
-      </c>
-      <c r="C164">
-        <v>8.5</v>
-      </c>
-      <c r="D164" t="s">
-        <v>311</v>
-      </c>
-      <c r="E164" t="s">
-        <v>329</v>
-      </c>
-      <c r="F164" s="2" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; H164 &amp; """" &amp; ":" &amp; I164 &amp; "}"</f>
-        <v>{"Siembra 1lt":2}</v>
-      </c>
-      <c r="G164" t="s">
-        <v>421</v>
-      </c>
-      <c r="H164" t="s">
-        <v>205</v>
-      </c>
-      <c r="I164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>273</v>
-      </c>
-      <c r="B165" t="s">
-        <v>152</v>
-      </c>
-      <c r="C165">
-        <v>9</v>
-      </c>
-      <c r="D165" t="s">
-        <v>312</v>
-      </c>
-      <c r="E165" t="s">
-        <v>330</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G165" t="s">
-        <v>421</v>
-      </c>
-      <c r="I165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>273</v>
-      </c>
-      <c r="B166" t="s">
-        <v>153</v>
-      </c>
-      <c r="C166">
-        <v>9</v>
-      </c>
-      <c r="D166" t="s">
-        <v>313</v>
-      </c>
-      <c r="E166" t="s">
-        <v>331</v>
-      </c>
-      <c r="F166" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G166" t="s">
-        <v>421</v>
-      </c>
-      <c r="I166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>273</v>
-      </c>
-      <c r="B167" t="s">
-        <v>154</v>
-      </c>
-      <c r="C167">
-        <v>5</v>
-      </c>
-      <c r="D167" t="s">
-        <v>314</v>
-      </c>
-      <c r="E167" t="s">
-        <v>332</v>
-      </c>
-      <c r="F167" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G167" t="s">
-        <v>421</v>
-      </c>
-      <c r="I167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>273</v>
-      </c>
-      <c r="B168" t="s">
-        <v>155</v>
-      </c>
-      <c r="C168">
-        <v>10</v>
-      </c>
-      <c r="D168" t="s">
-        <v>315</v>
-      </c>
-      <c r="E168" t="s">
-        <v>333</v>
-      </c>
-      <c r="F168" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G168" t="s">
-        <v>421</v>
-      </c>
-      <c r="I168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>273</v>
-      </c>
-      <c r="B169" t="s">
-        <v>156</v>
-      </c>
-      <c r="C169">
-        <v>10</v>
-      </c>
-      <c r="D169" t="s">
-        <v>316</v>
-      </c>
-      <c r="E169" t="s">
-        <v>334</v>
-      </c>
-      <c r="F169" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G169" t="s">
-        <v>421</v>
-      </c>
-      <c r="I169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>273</v>
-      </c>
-      <c r="B170" t="s">
-        <v>157</v>
-      </c>
-      <c r="C170">
-        <v>10</v>
-      </c>
-      <c r="D170" t="s">
-        <v>300</v>
-      </c>
-      <c r="E170" t="s">
-        <v>335</v>
-      </c>
-      <c r="F170" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"Pilsener 1 Lt":3}</v>
-      </c>
-      <c r="G170" t="s">
-        <v>421</v>
-      </c>
-      <c r="H170" t="s">
-        <v>202</v>
-      </c>
-      <c r="I170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>273</v>
-      </c>
-      <c r="B171" t="s">
-        <v>158</v>
-      </c>
-      <c r="C171">
-        <v>10</v>
-      </c>
-      <c r="D171" t="s">
-        <v>301</v>
-      </c>
-      <c r="E171" t="s">
-        <v>336</v>
-      </c>
-      <c r="F171" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"Club 850ml":3}</v>
-      </c>
-      <c r="G171" t="s">
-        <v>421</v>
-      </c>
-      <c r="H171" t="s">
-        <v>198</v>
-      </c>
       <c r="I171">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6790,20 +6683,20 @@
         <v>273</v>
       </c>
       <c r="B172" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C172">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="D172" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F172" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"Siembra 1lt":3}</v>
+        <f xml:space="preserve"> "{" &amp; """" &amp; H172 &amp; """" &amp; ":" &amp; I172 &amp; "}"</f>
+        <v>{"Siembra 1lt":2}</v>
       </c>
       <c r="G172" t="s">
         <v>421</v>
@@ -6812,7 +6705,7 @@
         <v>205</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6820,29 +6713,25 @@
         <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C173">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="E173" t="s">
-        <v>338</v>
-      </c>
-      <c r="F173" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"Corona 330ml":6}</v>
+        <v>330</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="G173" t="s">
         <v>421</v>
       </c>
-      <c r="H173" t="s">
-        <v>200</v>
-      </c>
       <c r="I173">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6850,29 +6739,26 @@
         <v>273</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F174" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Coronita 210ml":6}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G174" t="s">
         <v>421</v>
       </c>
-      <c r="H174" t="s">
-        <v>201</v>
-      </c>
       <c r="I174">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6880,29 +6766,26 @@
         <v>273</v>
       </c>
       <c r="B175" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C175">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="E175" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F175" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Gran Malo 750ml":2}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G175" t="s">
         <v>421</v>
       </c>
-      <c r="H175" t="s">
-        <v>212</v>
-      </c>
       <c r="I175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -6910,26 +6793,23 @@
         <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C176">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F176" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Azteca Silver 750ml":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G176" t="s">
         <v>421</v>
-      </c>
-      <c r="H176" t="s">
-        <v>215</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -6940,26 +6820,23 @@
         <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C177">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="E177" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F177" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Canijo Tamarindo":1}</v>
+        <v>{"":1}</v>
       </c>
       <c r="G177" t="s">
         <v>421</v>
-      </c>
-      <c r="H177" t="s">
-        <v>216</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -6970,29 +6847,29 @@
         <v>273</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C178">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F178" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Antioqueño Tapa azul 375ml":2}</v>
+        <v>{"Pilsener 1 Lt":3}</v>
       </c>
       <c r="G178" t="s">
         <v>421</v>
       </c>
       <c r="H178" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -7000,29 +6877,29 @@
         <v>273</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E179" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F179" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Zhumir Naranjilla 700ml":2}</v>
+        <v>{"Club 850ml":3}</v>
       </c>
       <c r="G179" t="s">
         <v>421</v>
       </c>
       <c r="H179" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -7030,58 +6907,59 @@
         <v>273</v>
       </c>
       <c r="B180" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="D180" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F180" s="2" t="str">
-        <f xml:space="preserve"> "{" &amp; """" &amp; H180 &amp; """" &amp; ":" &amp; I180 &amp; "}"</f>
-        <v>{"Norteño 750ml":1}</v>
+        <f t="shared" si="5"/>
+        <v>{"Siembra 1lt":3}</v>
       </c>
       <c r="G180" t="s">
         <v>421</v>
       </c>
       <c r="H180" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>273</v>
       </c>
       <c r="B181" t="s">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D181" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="E181" t="s">
-        <v>346</v>
-      </c>
-      <c r="F181" t="s">
-        <v>418</v>
+        <v>338</v>
+      </c>
+      <c r="F181" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Corona 330ml":6}</v>
       </c>
       <c r="G181" t="s">
         <v>421</v>
       </c>
       <c r="H181" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -7089,29 +6967,29 @@
         <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>321</v>
+        <v>161</v>
       </c>
       <c r="C182">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F182" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Miraflores 750ml":2}</v>
+        <v>{"Coronita 210ml":6}</v>
       </c>
       <c r="G182" t="s">
         <v>421</v>
       </c>
       <c r="H182" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="I182">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -7119,52 +6997,56 @@
         <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>162</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D183" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F183" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Haciendazo 1500ml":3}</v>
+        <v>{"Gran Malo 750ml":2}</v>
       </c>
       <c r="G183" t="s">
         <v>421</v>
       </c>
       <c r="H183" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="I183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>273</v>
       </c>
       <c r="B184" t="s">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="C184">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E184" t="s">
-        <v>348</v>
-      </c>
-      <c r="F184" t="s">
-        <v>419</v>
+        <v>341</v>
+      </c>
+      <c r="F184" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Azteca Silver 750ml":1}</v>
       </c>
       <c r="G184" t="s">
         <v>421</v>
+      </c>
+      <c r="H184" t="s">
+        <v>215</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7175,29 +7057,29 @@
         <v>273</v>
       </c>
       <c r="B185" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C185">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E185" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F185" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Barbados Blue Berry":2}</v>
+        <v>{"Canijo Tamarindo":1}</v>
       </c>
       <c r="G185" t="s">
         <v>421</v>
       </c>
       <c r="H185" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -7205,29 +7087,29 @@
         <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C186">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F186" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"Switch Bongo Bongo":3}</v>
+        <v>{"Antioqueño Tapa azul 375ml":2}</v>
       </c>
       <c r="G186" t="s">
         <v>421</v>
       </c>
       <c r="H186" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="I186">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.35">
@@ -7235,217 +7117,344 @@
         <v>273</v>
       </c>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C187">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="D187" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E187" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F187" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{"RTD":3}</v>
+        <v>{"Zhumir Naranjilla 700ml":2}</v>
       </c>
       <c r="G187" t="s">
         <v>421</v>
       </c>
       <c r="H187" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="I187">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
+        <v>273</v>
+      </c>
+      <c r="B188" t="s">
+        <v>167</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+      <c r="D188" t="s">
+        <v>310</v>
+      </c>
+      <c r="E188" t="s">
+        <v>345</v>
+      </c>
+      <c r="F188" s="2" t="str">
+        <f xml:space="preserve"> "{" &amp; """" &amp; H188 &amp; """" &amp; ":" &amp; I188 &amp; "}"</f>
+        <v>{"Norteño 750ml":1}</v>
+      </c>
+      <c r="G188" t="s">
+        <v>421</v>
+      </c>
+      <c r="H188" t="s">
+        <v>229</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" t="s">
+        <v>320</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189" t="s">
+        <v>324</v>
+      </c>
+      <c r="E189" t="s">
+        <v>346</v>
+      </c>
+      <c r="F189" t="s">
+        <v>418</v>
+      </c>
+      <c r="G189" t="s">
+        <v>421</v>
+      </c>
+      <c r="H189" t="s">
+        <v>234</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" t="s">
+        <v>321</v>
+      </c>
+      <c r="C190">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>325</v>
+      </c>
+      <c r="E190" t="s">
+        <v>347</v>
+      </c>
+      <c r="F190" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Miraflores 750ml":2}</v>
+      </c>
+      <c r="G190" t="s">
+        <v>421</v>
+      </c>
+      <c r="H190" t="s">
+        <v>235</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>273</v>
+      </c>
+      <c r="B191" t="s">
+        <v>322</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" t="s">
+        <v>326</v>
+      </c>
+      <c r="E191" t="s">
+        <v>349</v>
+      </c>
+      <c r="F191" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Haciendazo 1500ml":3}</v>
+      </c>
+      <c r="G191" t="s">
+        <v>421</v>
+      </c>
+      <c r="H191" t="s">
+        <v>237</v>
+      </c>
+      <c r="I191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>273</v>
+      </c>
+      <c r="B192" t="s">
+        <v>323</v>
+      </c>
+      <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>327</v>
+      </c>
+      <c r="E192" t="s">
+        <v>348</v>
+      </c>
+      <c r="F192" t="s">
+        <v>419</v>
+      </c>
+      <c r="G192" t="s">
+        <v>421</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>273</v>
+      </c>
+      <c r="B193" t="s">
+        <v>168</v>
+      </c>
+      <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>317</v>
+      </c>
+      <c r="E193" t="s">
+        <v>350</v>
+      </c>
+      <c r="F193" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Barbados Blue Berry":2}</v>
+      </c>
+      <c r="G193" t="s">
+        <v>421</v>
+      </c>
+      <c r="H193" t="s">
+        <v>219</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>273</v>
+      </c>
+      <c r="B194" t="s">
+        <v>169</v>
+      </c>
+      <c r="C194">
+        <v>12</v>
+      </c>
+      <c r="D194" t="s">
+        <v>318</v>
+      </c>
+      <c r="E194" t="s">
+        <v>351</v>
+      </c>
+      <c r="F194" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"Switch Bongo Bongo":3}</v>
+      </c>
+      <c r="G194" t="s">
+        <v>421</v>
+      </c>
+      <c r="H194" t="s">
+        <v>281</v>
+      </c>
+      <c r="I194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C195">
+        <v>11.5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>319</v>
+      </c>
+      <c r="E195" t="s">
+        <v>352</v>
+      </c>
+      <c r="F195" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>{"RTD":3}</v>
+      </c>
+      <c r="G195" t="s">
+        <v>421</v>
+      </c>
+      <c r="H195" t="s">
+        <v>90</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>274</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B196" t="s">
         <v>171</v>
       </c>
-      <c r="C188">
-        <v>1.25</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="C196">
+        <v>1.5</v>
+      </c>
+      <c r="D196" t="s">
         <v>171</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E196" t="s">
         <v>171</v>
       </c>
-      <c r="F188" s="2" t="str">
+      <c r="F196" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
-      <c r="G188" t="s">
-        <v>421</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="G196" t="s">
+        <v>421</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>274</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B197" t="s">
         <v>274</v>
       </c>
-      <c r="C189">
-        <v>1.25</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="C197" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D197" t="s">
         <v>274</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E197" t="s">
         <v>274</v>
       </c>
-      <c r="F189" s="2" t="str">
+      <c r="F197" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
-      <c r="G189" t="s">
-        <v>421</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="G197" t="s">
+        <v>421</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>266</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B198" t="s">
         <v>328</v>
       </c>
-      <c r="C190">
+      <c r="C198">
         <v>1.75</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D198" t="s">
         <v>328</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E198" t="s">
         <v>328</v>
       </c>
-      <c r="F190" s="2" t="str">
+      <c r="F198" s="2" t="str">
         <f t="shared" si="5"/>
         <v>{"":1}</v>
       </c>
-      <c r="G190" t="s">
-        <v>421</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
-        <v>208</v>
-      </c>
-      <c r="B191" t="s">
-        <v>363</v>
-      </c>
-      <c r="C191">
-        <v>12</v>
-      </c>
-      <c r="D191" t="s">
-        <v>358</v>
-      </c>
-      <c r="E191" t="s">
-        <v>358</v>
-      </c>
-      <c r="F191" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G191" t="s">
-        <v>421</v>
-      </c>
-      <c r="I191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>208</v>
-      </c>
-      <c r="B192" t="s">
-        <v>364</v>
-      </c>
-      <c r="C192">
-        <v>18</v>
-      </c>
-      <c r="D192" t="s">
-        <v>359</v>
-      </c>
-      <c r="E192" t="s">
-        <v>359</v>
-      </c>
-      <c r="F192" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G192" t="s">
-        <v>421</v>
-      </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>208</v>
-      </c>
-      <c r="B193" t="s">
-        <v>365</v>
-      </c>
-      <c r="C193">
-        <v>12</v>
-      </c>
-      <c r="D193" t="s">
-        <v>361</v>
-      </c>
-      <c r="E193" t="s">
-        <v>361</v>
-      </c>
-      <c r="F193" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G193" t="s">
-        <v>421</v>
-      </c>
-      <c r="I193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>208</v>
-      </c>
-      <c r="B194" t="s">
-        <v>366</v>
-      </c>
-      <c r="C194">
-        <v>18</v>
-      </c>
-      <c r="D194" t="s">
-        <v>360</v>
-      </c>
-      <c r="E194" t="s">
-        <v>360</v>
-      </c>
-      <c r="F194" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{"":1}</v>
-      </c>
-      <c r="G194" t="s">
-        <v>421</v>
-      </c>
-      <c r="I194">
+      <c r="G198" t="s">
+        <v>421</v>
+      </c>
+      <c r="I198">
         <v>1</v>
       </c>
     </row>
@@ -7460,7 +7469,7 @@
           <x14:formula1>
             <xm:f>Hoja1!$B$2:$B$95</xm:f>
           </x14:formula1>
-          <xm:sqref>H164:H195 H123:H126 H140:H154 H2:H48</xm:sqref>
+          <xm:sqref>H37:H40 H148:H162 H2:H56 H172:H198 H203</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
